--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 9:36 AM</t>
+    <t>Sunday, 3 August, 2025 9:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -62,7 +62,28 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 9:38 AM</t>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>VONDALOUS 20MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 3 August, 2025 9:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +745,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>26</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +856,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -62,18 +62,69 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VONDALOUS 20MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -83,7 +134,7 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 9:53 AM</t>
+    <t>Sunday, 3 August, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -774,7 +825,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -783,7 +834,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -800,49 +851,214 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>125</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>25</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>26</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>367</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>42</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>43</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -866,10 +1082,35 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -116,6 +128,36 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>GOUTYLESS 30 TABS</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -134,7 +176,7 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 9:56 AM</t>
+    <t>Sunday, 3 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -907,7 +949,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -917,11 +959,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -933,14 +975,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -950,11 +992,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -966,14 +1008,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -983,14 +1025,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -999,7 +1041,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1012,53 +1054,185 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>367</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>42</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>518.85000000000002</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>56</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>57</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1107,10 +1281,30 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -149,6 +149,9 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -176,7 +179,19 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:01 AM</t>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 3 August, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1129,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1124,11 +1139,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1140,7 +1155,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1157,11 +1172,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1173,14 +1188,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1190,49 +1205,115 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>21</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>54</v>
       </c>
-      <c t="s" r="Q18" s="12">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>518.85000000000002</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>55</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>56</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>57</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>58</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>564.85000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>60</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>61</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>62</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1301,10 +1382,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -191,7 +200,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:03 AM</t>
+    <t>Sunday, 3 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1179,7 +1188,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1228,7 +1237,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1245,7 +1254,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1261,59 +1270,92 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>59</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>60</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>40</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>61</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>564.85000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>60</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>61</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>62</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>637.35000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>63</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>64</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>65</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1392,10 +1434,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -200,7 +209,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:04 AM</t>
+    <t>Sunday, 3 August, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,7 +1213,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1270,7 +1279,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1287,7 +1296,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1303,59 +1312,92 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>62</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>63</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>40</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>64</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>637.35000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>63</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>64</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>65</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>761.35000000000002</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>66</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>67</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>68</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1439,10 +1481,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -209,7 +215,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:05 AM</t>
+    <t>Sunday, 3 August, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1186,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1213,7 +1219,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1230,7 +1236,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1246,7 +1252,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,11 +1295,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1305,14 +1311,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1322,14 +1328,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1338,66 +1344,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>65</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>40</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>66</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>761.35000000000002</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>67</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>780.35000000000002</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
         <v>68</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>69</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>70</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1486,10 +1525,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -215,7 +215,16 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:06 AM</t>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 3 August, 2025 10:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,38 +1414,71 @@
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>780.35000000000002</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>68</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>40</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>69</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>70</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>845.35000000000002</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>71</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>72</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>73</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1530,10 +1572,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -170,6 +170,9 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -203,6 +206,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -224,7 +239,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:14 AM</t>
+    <t>Sunday, 3 August, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1276,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1271,11 +1286,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1287,14 +1302,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1304,11 +1319,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1320,7 +1335,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1337,11 +1352,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1386,31 +1401,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1419,14 +1434,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1436,49 +1451,115 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>845.35000000000002</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>69</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>70</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>40</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>71</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>72</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>73</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>40</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>74</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>884.35000000000002</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>76</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>77</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>78</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1577,10 +1658,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -119,6 +131,30 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -170,6 +206,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -182,6 +227,9 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -239,7 +287,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:37 AM</t>
+    <t>Sunday, 3 August, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1029,7 +1077,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1045,7 +1093,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,11 +1103,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1071,14 +1119,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,11 +1136,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1104,31 +1152,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1137,14 +1185,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,11 +1202,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1170,14 +1218,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,28 +1251,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1236,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,11 +1301,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1269,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1286,11 +1334,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1302,14 +1350,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1367,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,7 +1383,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1352,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,28 +1416,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1401,14 +1449,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,14 +1466,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1434,28 +1482,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1467,28 +1515,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1507,59 +1555,224 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>884.35000000000002</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>75</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>76</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>77</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>78</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>79</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>81</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>82</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>52</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>83</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>85</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>86</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>52</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>87</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>52</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>90</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1233.3499999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>92</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>93</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>94</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1668,10 +1881,35 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:38 AM</t>
+    <t>Sunday, 3 August, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -257,15 +266,30 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -287,7 +311,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 10:41 AM</t>
+    <t>Sunday, 3 August, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1522,7 +1546,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1532,11 +1556,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1548,14 +1572,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1565,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1581,7 +1605,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1598,7 +1622,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1621,7 +1645,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1638,7 +1662,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1654,24 +1678,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1680,14 +1704,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1697,11 +1721,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1713,14 +1737,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1730,49 +1754,148 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>90</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>52</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>91</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1233.3499999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>92</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>93</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>94</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>52</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>95</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>97</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>52</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>98</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1286.3499999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>100</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>101</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>102</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1906,10 +2029,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -245,6 +254,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -311,7 +329,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:00 AM</t>
+    <t>Sunday, 3 August, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1101,7 +1119,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1134,7 +1152,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1150,7 +1168,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1160,11 +1178,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1200,7 +1218,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1216,7 +1234,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1282,21 +1300,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1308,7 +1326,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1321,7 +1339,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1348,7 +1366,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1374,7 +1392,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1414,7 +1432,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1447,13 +1465,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1464,7 +1482,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1480,21 +1498,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,11 +1541,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1546,7 +1564,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,7 +1574,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1579,7 +1597,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,11 +1607,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,11 +1640,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1638,7 +1656,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1655,7 +1673,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1711,13 +1729,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1744,13 +1762,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1761,7 +1779,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1777,13 +1795,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1810,21 +1828,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1836,66 +1854,132 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>99</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1286.3499999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>100</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>55</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>101</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>102</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>103</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>12</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>55</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>104</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1380.4000000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>106</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>107</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>108</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2044,10 +2128,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -44,30 +44,39 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -281,15 +290,21 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -329,7 +344,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:02 AM</t>
+    <t>Sunday, 3 August, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1020,7 +1035,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1029,14 +1044,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1046,14 +1061,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1069,7 +1084,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1079,11 +1094,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1095,14 +1110,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,14 +1127,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,14 +1143,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,14 +1160,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1161,14 +1176,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1178,14 +1193,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1209,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1218,7 +1233,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1234,7 +1249,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1251,7 +1266,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1267,7 +1282,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1292,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,14 +1308,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1317,7 +1332,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1333,24 +1348,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1359,20 +1374,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1383,7 +1398,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1399,7 +1414,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1409,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,14 +1440,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1465,7 +1480,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1482,7 +1497,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1498,13 +1513,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1515,7 +1530,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1531,21 +1546,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1557,14 +1572,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,11 +1589,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1597,7 +1612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,7 +1622,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1630,7 +1645,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1640,11 +1655,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1656,14 +1671,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1673,11 +1688,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1689,14 +1704,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1706,14 +1721,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1729,7 +1744,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1746,7 +1761,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1762,7 +1777,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1779,7 +1794,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1795,13 +1810,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1812,7 +1827,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1828,21 +1843,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1854,28 +1869,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1887,28 +1902,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1920,7 +1935,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1933,53 +1948,119 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>104</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>105</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1380.4000000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>58</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>106</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>107</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>108</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>58</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>109</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1455.4000000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>111</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>112</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>113</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2138,10 +2219,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -233,9 +233,30 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -344,7 +365,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:03 AM</t>
+    <t>Sunday, 3 August, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1589,11 +1610,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1605,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1643,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1655,14 +1676,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,11 +1709,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1704,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,11 +1742,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1737,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1754,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,7 +1791,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1787,11 +1808,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1803,7 +1824,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1820,11 +1841,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1836,20 +1857,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1876,24 +1897,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1919,11 +1940,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1935,14 +1956,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1968,14 +1989,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2008,7 +2029,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2029,38 +2050,104 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1455.4000000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>111</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>112</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>58</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>113</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>115</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>18</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>58</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>116</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1549.4000000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>118</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>119</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>120</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2229,10 +2316,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -278,6 +278,12 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -365,7 +371,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:06 AM</t>
+    <t>Sunday, 3 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1831,7 +1837,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,14 +1913,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,31 +1929,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,14 +1962,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +1979,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2022,7 +2028,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2039,11 +2045,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2055,14 +2061,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2072,11 +2078,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2088,14 +2094,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2105,49 +2111,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>117</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1549.4000000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>58</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>118</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>119</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1584.9000000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>120</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>121</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>122</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2326,10 +2365,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
@@ -83,9 +95,6 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -266,6 +275,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
@@ -284,6 +302,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -296,9 +326,6 @@
     <t>186.00</t>
   </si>
   <si>
-    <t>61.3800</t>
-  </si>
-  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -371,7 +398,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:11 AM</t>
+    <t>Sunday, 3 August, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1105,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1088,14 +1115,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1111,7 +1138,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1128,7 +1155,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1144,7 +1171,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,11 +1181,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1170,14 +1197,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1187,14 +1214,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1203,14 +1230,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,14 +1247,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1236,14 +1263,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1280,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1296,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1293,7 +1320,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1309,7 +1336,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1326,7 +1353,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1342,7 +1369,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1379,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1368,14 +1395,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1392,7 +1419,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,24 +1435,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1434,20 +1461,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1458,7 +1485,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1474,7 +1501,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1511,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,14 +1527,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1544,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1540,7 +1567,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1557,7 +1584,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1573,13 +1600,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1590,7 +1617,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1606,13 +1633,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1649,11 +1676,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1665,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1709,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,14 +1725,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1722,7 +1749,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1738,7 +1765,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,7 +1775,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1771,7 +1798,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,14 +1824,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1841,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,11 +1874,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1863,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1907,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1923,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,11 +1940,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1929,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,20 +1989,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1983,10 +2010,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,28 +2022,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2028,7 +2055,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2041,18 +2068,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,28 +2088,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2094,28 +2121,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2127,7 +2154,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2140,53 +2167,152 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>119</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1584.9000000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>61</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>120</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>121</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>122</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>123</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>61</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>124</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>126</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>22</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>61</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>127</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1735.28</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>129</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>130</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>131</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2370,10 +2496,25 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -203,12 +215,18 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:12 AM</t>
+    <t>Sunday, 3 August, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1156,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1148,14 +1166,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1164,14 +1182,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1181,14 +1199,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1197,14 +1215,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1254,7 +1272,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1287,7 +1305,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1320,7 +1338,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1336,7 +1354,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1346,11 +1364,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1362,14 +1380,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1379,14 +1397,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,14 +1413,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1419,7 +1437,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1435,7 +1453,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1445,11 +1463,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1461,20 +1479,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1507,15 +1525,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1527,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1544,11 +1562,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1577,11 +1595,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1633,13 +1651,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1650,7 +1668,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,7 +1701,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1699,21 +1717,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1775,11 +1793,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1815,7 +1833,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1831,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,7 +1859,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1864,7 +1882,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,14 +1941,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,11 +1958,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1973,14 +1991,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1996,7 +2014,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,7 +2040,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2039,11 +2057,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2055,7 +2073,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2072,11 +2090,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2095,21 +2113,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2121,31 +2139,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2154,28 +2172,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2187,28 +2205,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2227,21 +2245,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2253,7 +2271,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2266,53 +2284,119 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>128</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1735.28</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>129</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>65</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>130</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>131</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>132</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>26</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>65</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>133</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1988.78</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>135</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>136</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>137</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2511,10 +2595,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -62,24 +62,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -152,6 +155,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -416,7 +428,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:16 AM</t>
+    <t>Sunday, 3 August, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1133,11 +1145,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1149,14 +1161,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1166,11 +1178,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1182,14 +1194,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1199,14 +1211,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1215,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1232,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1248,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1265,11 +1277,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1281,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1298,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1331,14 +1343,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1347,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1364,14 +1376,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1380,7 +1392,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1397,11 +1409,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1413,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1430,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1446,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1463,11 +1475,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1479,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,28 +1524,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1562,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1578,7 +1590,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1591,15 +1603,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,7 +1673,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1684,7 +1696,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1710,31 +1722,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1743,7 +1755,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1776,28 +1788,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1816,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,11 +1871,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,11 +1937,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,14 +1970,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1981,7 +1993,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1991,14 +2003,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,11 +2036,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2040,7 +2052,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2090,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2123,11 +2135,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2139,7 +2151,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2156,11 +2168,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2172,28 +2184,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2205,20 +2217,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2229,7 +2241,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2238,20 +2250,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2278,21 +2290,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2304,28 +2316,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2337,66 +2349,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>132</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>133</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>69</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>134</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1988.78</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>135</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>136</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>27</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>69</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>137</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2143.7800000000002</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>139</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>140</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>141</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2605,10 +2683,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -248,9 +257,6 @@
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>19.0000</t>
   </si>
   <si>
@@ -347,9 +353,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -428,7 +431,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:29 AM</t>
+    <t>Sunday, 3 August, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1663,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1676,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1709,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,7 +1725,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1739,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1765,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,11 +1775,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1788,31 +1791,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,28 +1824,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1871,11 +1874,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1887,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,7 +1956,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1970,14 +1973,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +1989,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2052,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2072,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,7 +2095,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2105,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,7 +2138,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2158,7 +2161,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,14 +2204,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,14 +2237,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2253,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,14 +2286,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2323,7 +2326,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2349,7 +2352,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2382,14 +2385,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2399,11 +2402,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2415,14 +2418,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2432,49 +2435,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>137</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>27</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>69</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>138</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2143.7800000000002</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>139</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2181.7800000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>140</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
         <v>141</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>142</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2693,10 +2729,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:30 AM</t>
+    <t>Sunday, 3 August, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:31 AM</t>
+    <t>Sunday, 3 August, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -251,6 +251,12 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -377,6 +383,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -431,7 +446,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:35 AM</t>
+    <t>Sunday, 3 August, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,24 +1747,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,7 +1773,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1798,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1824,31 +1839,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1857,28 +1872,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1890,7 +1905,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +1988,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,7 +2004,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2006,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,11 +2087,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2128,7 +2143,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2153,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,11 +2186,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2227,7 +2242,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2241,10 +2256,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,31 +2301,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,28 +2334,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2359,7 +2374,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2402,11 +2417,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2435,11 +2450,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2468,49 +2483,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>138</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>139</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2181.7800000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>69</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>140</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>141</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>142</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>27</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>69</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>143</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2337.1799999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>145</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>146</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>147</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2734,10 +2815,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 11:40 AM</t>
+    <t>Sunday, 3 August, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -47,69 +47,72 @@
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
     <t>CONCOR 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -284,6 +284,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -413,7 +425,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -446,7 +458,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 12:10 PM</t>
+    <t>Sunday, 3 August, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,7 +1132,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1130,14 +1142,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1163,14 +1175,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1186,7 +1198,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1203,7 +1215,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1236,7 +1248,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1252,7 +1264,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1269,7 +1281,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1278,14 +1290,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1295,14 +1307,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1311,14 +1323,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1328,14 +1340,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1344,14 +1356,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1368,7 +1380,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,7 +1413,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1417,7 +1429,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1434,7 +1446,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1467,7 +1479,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1483,7 +1495,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1500,7 +1512,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1516,7 +1528,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1533,7 +1545,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,7 +1578,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1582,7 +1594,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1599,7 +1611,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1615,7 +1627,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1632,7 +1644,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1648,7 +1660,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1665,7 +1677,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1681,7 +1693,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1698,7 +1710,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1714,7 +1726,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1724,14 +1736,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1747,7 +1759,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1764,7 +1776,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,7 +1809,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,7 +1842,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1846,7 +1858,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1863,7 +1875,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1879,7 +1891,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1896,7 +1908,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1912,7 +1924,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2011,7 +2023,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2153,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2186,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2209,7 +2221,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,20 +2379,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2391,7 +2403,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2407,7 +2419,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2457,7 +2469,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2483,14 +2495,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2523,7 +2535,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2539,7 +2551,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2549,49 +2561,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2337.1799999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>145</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>146</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>27</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>69</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>147</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2442.1799999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>149</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>150</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>151</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2825,10 +2870,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -311,13 +311,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
@@ -458,7 +458,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 12:13 PM</t>
+    <t>Sunday, 3 August, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2040,7 +2040,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2606,7 +2606,7 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2442.1799999999998</v>
+        <v>2465.1799999999998</v>
       </c>
       <c r="Q53" s="13"/>
     </row>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -185,6 +185,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
@@ -458,7 +467,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 12:23 PM</t>
+    <t>Sunday, 3 August, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,24 +1537,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1594,7 +1603,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>33</v>
@@ -1620,20 +1629,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1660,13 +1669,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1677,7 +1686,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1693,7 +1702,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1726,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1752,28 +1761,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>33</v>
@@ -1785,31 +1794,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1818,7 +1827,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,7 +1877,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1891,13 +1900,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1908,7 +1917,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1924,21 +1933,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,11 +2009,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,7 +2115,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2370,7 +2379,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2386,7 +2395,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2419,21 +2428,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2445,28 +2454,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2478,31 +2487,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2535,7 +2544,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2551,21 +2560,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2577,20 +2586,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2605,38 +2614,71 @@
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2465.1799999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>149</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>27</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>59</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>150</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>151</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2595.8600000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>152</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>153</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>154</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2875,10 +2917,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -80,6 +80,9 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -89,6 +92,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
@@ -101,6 +116,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>BEDREMINE 100MG 30 EXTEN. REL. TAB.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -200,12 +224,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -266,6 +284,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>ISOPTIN 80MG 30 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -467,7 +494,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 12:24 PM</t>
+    <t>Sunday, 3 August, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1234,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1217,11 +1244,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -1233,14 +1260,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1250,11 +1277,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1266,14 +1293,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1283,14 +1310,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1299,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1316,11 +1343,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1332,14 +1359,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1349,11 +1376,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1365,14 +1392,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1382,14 +1409,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1398,14 +1425,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1415,11 +1442,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1431,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1448,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1464,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1497,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1530,31 +1557,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1563,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,31 +1656,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1662,31 +1689,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,31 +1788,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,7 +1821,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1807,18 +1834,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,11 +1871,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1860,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,7 +1920,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1906,18 +1933,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1939,7 +1966,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1966,7 +1993,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -1992,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,7 +2052,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,31 +2085,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,11 +2135,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2263,7 +2290,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2412,7 +2439,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2428,7 +2455,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2454,31 +2481,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2487,28 +2514,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2520,31 +2547,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>113</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2553,28 +2580,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2586,28 +2613,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2619,66 +2646,198 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>148</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>67</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>149</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>151</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2595.8600000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>67</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>152</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>153</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c t="s" r="Q55" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>154</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>155</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>67</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>156</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>158</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>32</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>67</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>159</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3023.8600000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>161</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>162</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>163</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2922,10 +3081,30 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -494,7 +512,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 12:33 PM</t>
+    <t>Sunday, 3 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1795,13 +1813,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1828,13 +1846,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1845,7 +1863,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1894,7 +1912,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,28 +1938,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>41</v>
@@ -1953,31 +1971,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1993,7 +2011,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2019,7 +2037,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,7 +2087,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2092,13 +2110,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2109,7 +2127,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,28 +2169,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,11 +2219,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,11 +2285,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2323,7 +2341,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,7 +2351,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2356,7 +2374,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,11 +2450,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,7 +2532,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2531,11 +2549,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2547,7 +2565,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2564,11 +2582,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>41</v>
@@ -2587,7 +2605,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2620,24 +2638,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,28 +2664,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2729,11 +2747,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2752,7 +2770,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2795,49 +2813,115 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>160</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3023.8600000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>161</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>67</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>162</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>163</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>164</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>32</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>67</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>165</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3073.8600000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>167</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>168</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>169</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3101,10 +3185,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>187.5000</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -380,7 +389,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
+    <t>186.0000</t>
   </si>
   <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
@@ -512,7 +521,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 12:49 PM</t>
+    <t>Sunday, 3 August, 2025 1:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1599,7 +1608,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1615,7 +1624,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,11 +1634,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>41</v>
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1681,21 +1690,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>41</v>
@@ -1707,31 +1716,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,11 +1766,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1780,7 +1789,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1846,13 +1855,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1879,13 +1888,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1896,7 +1905,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1912,7 +1921,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1945,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,28 +1980,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>41</v>
@@ -2004,31 +2013,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2044,7 +2053,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2070,7 +2079,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2087,14 +2096,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,7 +2129,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2143,7 +2152,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2176,13 +2185,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2193,7 +2202,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2209,21 +2218,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2358,7 +2367,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2391,7 +2400,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2407,7 +2416,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2440,7 +2449,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2655,7 +2664,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2671,7 +2680,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2688,7 +2697,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2704,21 +2713,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2730,28 +2739,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2763,31 +2772,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2809,7 +2818,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2820,7 +2829,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2836,21 +2845,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2862,20 +2871,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2890,38 +2899,71 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3073.8600000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>167</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>32</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>70</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>168</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>169</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3323.3600000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>170</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>171</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>172</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3195,10 +3237,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 1:06 PM</t>
+    <t>Sunday, 3 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -521,7 +530,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 1:07 PM</t>
+    <t>Sunday, 3 August, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1501,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1542,7 +1551,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1558,7 +1567,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1641,7 +1650,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,11 +1676,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>41</v>
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1723,21 +1732,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>41</v>
@@ -1749,31 +1758,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,11 +1808,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1822,7 +1831,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1888,13 +1897,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1921,13 +1930,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1938,7 +1947,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1987,7 +1996,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,28 +2022,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>41</v>
@@ -2046,31 +2055,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,11 +2105,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2112,7 +2121,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,7 +2171,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2185,7 +2194,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2218,13 +2227,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2235,7 +2244,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2251,21 +2260,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,11 +2336,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2433,7 +2442,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2492,11 +2501,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2697,7 +2706,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2746,21 +2755,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2772,28 +2781,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2805,31 +2814,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2862,7 +2871,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2878,21 +2887,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2904,20 +2913,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2932,38 +2941,71 @@
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3323.3600000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>170</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>32</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>73</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>171</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>172</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3397.3600000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>173</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>174</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>175</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3242,10 +3284,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -401,6 +401,9 @@
     <t>186.0000</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
@@ -530,7 +533,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 1:08 PM</t>
+    <t>Sunday, 3 August, 2025 1:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2458,7 +2461,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2468,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,11 +2537,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2557,7 +2560,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2567,14 +2570,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2600,14 +2603,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2656,7 +2659,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,14 +2669,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2699,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2781,28 +2784,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2854,7 +2857,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2880,7 +2883,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2963,49 +2966,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>171</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>32</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>73</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>172</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3397.3600000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>173</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c t="s" r="Q62" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3477.3600000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>174</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
         <v>175</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>176</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3289,10 +3325,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -413,6 +413,9 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
@@ -533,7 +536,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 1:33 PM</t>
+    <t>Sunday, 3 August, 2025 1:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2527,7 +2530,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2537,11 +2540,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2593,7 +2596,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2603,14 +2606,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2692,7 +2695,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2718,14 +2721,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,28 +2820,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2867,11 +2870,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2890,7 +2893,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2916,7 +2919,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2966,11 +2969,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2999,49 +3002,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>172</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>32</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>73</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>173</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3477.3600000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>174</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c t="s" r="Q63" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3505.3600000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>175</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
         <v>176</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>177</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3330,10 +3366,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -392,6 +392,27 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-27.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
+  </si>
+  <si>
+    <t>362.50</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -464,6 +485,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VONDALOUS 20MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -503,7 +533,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -518,9 +551,6 @@
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -536,7 +566,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 1:35 PM</t>
+    <t>Sunday, 3 August, 2025 2:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2431,7 +2461,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2448,7 +2478,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2556,14 +2586,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,14 +2619,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2606,11 +2636,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2622,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2639,14 +2669,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2688,7 +2718,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2705,14 +2735,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2738,14 +2768,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,7 +2784,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2771,11 +2801,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2787,7 +2817,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2804,11 +2834,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>41</v>
@@ -2820,14 +2850,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,11 +2867,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2853,20 +2883,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2877,7 +2907,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2893,24 +2923,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2919,31 +2949,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2952,14 +2982,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2969,11 +2999,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3002,11 +3032,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3025,7 +3055,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3042,42 +3072,141 @@
         <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3505.3600000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>176</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>73</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>177</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>179</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>175</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>176</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>177</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>73</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>180</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>182</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>32</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>73</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>183</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3526.1900000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>185</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>186</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>187</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3371,10 +3500,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 2:34 PM</t>
+    <t>Sunday, 3 August, 2025 2:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -347,6 +347,9 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
     <t>NAPIZOLE 40MG 14CAP</t>
   </si>
   <si>
@@ -566,7 +569,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 2:54 PM</t>
+    <t>Sunday, 3 August, 2025 3:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2302,15 +2305,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2322,28 +2325,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2372,11 +2375,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2388,7 +2391,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2405,11 +2408,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2428,7 +2431,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2471,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2570,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2593,7 +2596,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2636,14 +2639,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2659,7 +2662,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2702,11 +2705,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2725,7 +2728,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2801,11 +2804,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2824,7 +2827,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2834,14 +2837,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2867,14 +2870,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2933,11 +2936,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>41</v>
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2966,14 +2969,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,28 +2985,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3015,14 +3018,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3032,11 +3035,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3055,7 +3058,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3081,7 +3084,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3131,11 +3134,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3164,49 +3167,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>183</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>32</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>73</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>184</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3526.1900000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>185</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c t="s" r="Q67" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3586.1900000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
         <v>186</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
         <v>187</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>188</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3515,10 +3551,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 3:19 PM</t>
+    <t>Sunday, 3 August, 2025 3:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BABY RELIEF 12.5MG 5 SUPP.</t>
   </si>
   <si>
@@ -134,9 +149,6 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -395,6 +407,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PRUCASOFT 1MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -551,6 +572,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -569,7 +602,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 3:23 PM</t>
+    <t>Sunday, 3 August, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1425,7 +1458,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1434,14 +1467,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1451,11 +1484,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1467,7 +1500,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1484,14 +1517,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1500,7 +1533,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1517,14 +1550,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1566,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1550,14 +1583,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1566,14 +1599,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1590,7 +1623,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1606,7 +1639,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1649,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1656,7 +1689,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1672,7 +1705,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1682,11 +1715,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1698,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1748,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1731,14 +1764,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1755,7 +1788,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1771,7 +1804,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1814,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,20 +1830,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1821,7 +1854,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,24 +1870,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,11 +1913,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1896,14 +1929,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1920,7 +1953,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1936,7 +1969,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1979,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,31 +1995,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1995,31 +2028,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,11 +2078,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2061,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,31 +2127,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,31 +2160,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2193,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2243,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2309,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2342,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,7 +2358,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2338,15 +2371,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2358,20 +2391,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2398,7 +2431,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2424,7 +2457,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2441,11 +2474,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2497,7 +2530,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2530,7 +2563,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2547,7 +2580,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2563,7 +2596,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,7 +2613,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2672,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,11 +2771,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2804,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2820,7 +2853,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,7 +2919,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2903,11 +2936,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,14 +3035,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,20 +3051,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3042,7 +3075,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3058,21 +3091,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3084,31 +3117,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3117,28 +3150,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3157,13 +3190,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3174,7 +3207,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3183,66 +3216,165 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3586.1900000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>186</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>187</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>188</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>77</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>189</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>191</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>183</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>77</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>192</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>194</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>37</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>77</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>195</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3647.0799999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>197</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>198</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>199</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3556,10 +3688,25 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -602,7 +602,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 3:30 PM</t>
+    <t>Sunday, 3 August, 2025 3:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -416,6 +416,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -449,6 +458,15 @@
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
@@ -602,7 +620,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 3:47 PM</t>
+    <t>Sunday, 3 August, 2025 4:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2596,7 +2614,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2613,7 +2631,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2679,7 +2697,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2761,24 +2779,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,7 +3003,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>35</v>
@@ -3058,7 +3076,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3075,7 +3093,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3091,7 +3109,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3108,7 +3126,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3124,24 +3142,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3150,28 +3168,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3233,11 +3251,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3249,14 +3267,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3299,11 +3317,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3315,14 +3333,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3343,38 +3361,104 @@
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3647.0799999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>197</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>189</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>77</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>198</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>199</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>200</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>37</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>77</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>201</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3691.1750000000002</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>203</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>204</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>205</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3703,10 +3787,20 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -74,6 +74,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>107.00</t>
+  </si>
+  <si>
+    <t>214.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ALZMENDA 10 MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>99.7500</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -95,165 +116,189 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>187.5300</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>BEDREMINE 100MG 30 EXTEN. REL. TAB.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>BRAVAMAX 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>187.5000</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>ASPOCID 75MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>BEDREMINE 100MG 30 EXTEN. REL. TAB.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>CONCOR 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONCOR 5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>187.5000</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -266,9 +311,6 @@
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>160.00</t>
   </si>
   <si>
@@ -302,6 +344,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GLIFLOZINO 5MG 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -311,6 +362,9 @@
     <t>151.5000</t>
   </si>
   <si>
+    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
+  </si>
+  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
@@ -383,6 +437,12 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>131.6700</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -620,7 +680,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:04 PM</t>
+    <t>Sunday, 3 August, 2025 4:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1327,7 +1387,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1337,14 +1397,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1353,14 +1413,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1370,14 +1430,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,14 +1446,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1403,11 +1463,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1419,14 +1479,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1436,11 +1496,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1459,7 +1519,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1529,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1545,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,14 +1562,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,14 +1595,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,14 +1628,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1584,14 +1644,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1624,7 +1684,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1641,7 +1701,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1657,7 +1717,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1727,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1743,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1760,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1776,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,11 +1793,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1749,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1826,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1842,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1859,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1875,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1892,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1908,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,14 +1925,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,31 +1941,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,11 +1991,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1947,14 +2007,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +2040,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2013,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2046,20 +2106,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2070,7 +2130,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2086,7 +2146,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2156,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2112,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2145,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2185,24 +2245,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,31 +2271,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,11 +2321,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2277,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,31 +2469,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2475,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2508,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2585,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2548,7 +2608,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,7 +2634,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2591,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,11 +2684,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2640,31 +2700,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,11 +2783,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2739,7 +2799,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2756,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,31 +2832,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2904,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2981,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,7 +3063,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3020,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3096,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,14 +3212,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3201,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,28 +3294,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3274,24 +3334,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>189</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,31 +3360,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3333,28 +3393,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3366,31 +3426,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3399,66 +3459,330 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>198</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>183</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>199</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>201</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>202</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3691.1750000000002</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>91</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>203</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>204</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c t="s" r="Q74" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>205</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>177</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>91</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>203</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>206</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>91</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>207</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>210</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>91</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>211</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>213</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>214</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>91</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>215</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>217</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>209</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>91</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>218</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>220</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>46</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>91</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>221</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>5018.125</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>223</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>224</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>225</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3797,10 +4121,50 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LANTUS SOLOSTAR 100 I.U./ML 1 PEN</t>
+  </si>
+  <si>
+    <t>248.50</t>
+  </si>
+  <si>
+    <t>248.5000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -680,7 +689,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:10 PM</t>
+    <t>Sunday, 3 August, 2025 4:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2608,7 +2617,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2625,7 +2634,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2674,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,7 +2709,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2713,15 +2722,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2740,21 +2749,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2922,7 +2931,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2955,7 +2964,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2988,7 +2997,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3054,7 +3063,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3070,7 +3079,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,28 +3105,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>41</v>
@@ -3136,13 +3145,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3153,7 +3162,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3235,7 +3244,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3450,7 +3459,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3466,7 +3475,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3499,7 +3508,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3516,7 +3525,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3532,21 +3541,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>209</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3664,7 +3673,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3730,7 +3739,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3751,38 +3760,71 @@
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>5018.125</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>223</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>46</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>91</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>224</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>225</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>5266.625</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>226</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>227</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>228</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4161,10 +4203,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -242,6 +242,9 @@
     <t>156.00</t>
   </si>
   <si>
+    <t>312.0000</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -689,7 +692,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:12 PM</t>
+    <t>Sunday, 3 August, 2025 4:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,7 +1960,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1971,10 +1974,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1983,7 +1986,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2000,11 +2003,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2016,7 +2019,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2033,11 +2036,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>41</v>
@@ -2049,14 +2052,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,11 +2069,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>41</v>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2099,11 +2102,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>41</v>
@@ -2115,7 +2118,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2128,15 +2131,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>41</v>
@@ -2148,7 +2151,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2198,11 +2201,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2214,7 +2217,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>41</v>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2264,11 +2267,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>41</v>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2293,15 +2296,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>41</v>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2330,11 +2333,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2346,7 +2349,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2363,11 +2366,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2379,7 +2382,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2396,11 +2399,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>41</v>
@@ -2478,7 +2481,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2491,15 +2494,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>41</v>
@@ -2511,7 +2514,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2528,11 +2531,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2594,11 +2597,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>41</v>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2643,7 +2646,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>41</v>
@@ -2676,7 +2679,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>41</v>
@@ -2709,7 +2712,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2755,15 +2758,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2829,7 +2832,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2874,7 +2877,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>65</v>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>41</v>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3006,7 +3009,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>65</v>
@@ -3072,7 +3075,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>41</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3151,15 +3154,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>41</v>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>65</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3303,7 +3306,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>41</v>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3369,7 +3372,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3386,11 +3389,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3402,7 +3405,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>41</v>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>41</v>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3518,11 +3521,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>41</v>
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3551,11 +3554,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3567,28 +3570,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3600,28 +3603,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3633,7 +3636,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3646,18 +3649,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,7 +3669,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3679,15 +3682,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3699,28 +3702,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3732,28 +3735,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3778,15 +3781,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3794,13 +3797,13 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>5266.625</v>
+        <v>5422.625</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c t="s" r="A83" s="14">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3808,13 +3811,13 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c t="s" r="G83" s="15">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
       <c t="s" r="K83" s="17">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -692,7 +692,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:13 PM</t>
+    <t>Sunday, 3 August, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -365,9 +374,27 @@
     <t>151.5000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>GOUTYLESS 30 TABS</t>
   </si>
   <si>
@@ -692,7 +719,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:18 PM</t>
+    <t>Sunday, 3 August, 2025 4:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2185,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2201,7 +2228,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2224,7 +2251,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2241,7 +2268,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2257,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2290,13 +2317,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2323,13 +2350,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2340,7 +2367,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2356,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2389,7 +2416,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2448,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2465,11 +2492,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>41</v>
@@ -2481,31 +2508,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2514,14 +2541,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,14 +2558,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,14 +2591,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2580,28 +2607,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>41</v>
@@ -2613,7 +2640,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2630,11 +2657,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2696,7 +2723,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2729,11 +2756,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2745,31 +2772,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2828,14 +2855,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2851,13 +2878,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2884,7 +2911,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,11 +2921,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2927,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2943,7 +2970,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2960,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2976,7 +3003,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2993,11 +3020,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3009,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3033,7 +3060,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3042,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,31 +3168,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3240,31 +3267,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3290,14 +3317,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,14 +3350,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,11 +3383,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3372,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3389,11 +3416,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3405,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3422,11 +3449,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>41</v>
@@ -3438,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3455,11 +3482,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3471,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3504,7 +3531,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3521,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>41</v>
@@ -3544,7 +3571,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3577,24 +3604,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3603,31 +3630,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3636,31 +3663,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3676,7 +3703,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3686,11 +3713,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3702,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3719,11 +3746,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3735,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3752,14 +3779,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3768,14 +3795,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3785,49 +3812,148 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>226</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>5422.625</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>227</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>92</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>228</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>229</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>230</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>222</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>92</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>231</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>233</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>46</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>92</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>234</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5564.1949999999997</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>236</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>237</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>238</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4211,10 +4337,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:20 PM</t>
+    <t>Sunday, 3 August, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>156.0000</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>10.8900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -467,9 +476,6 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -674,34 +680,37 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
     <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
     <t>10.00</t>
@@ -1558,7 +1567,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1773,7 +1782,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1806,7 +1815,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1839,7 +1848,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1855,7 +1864,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1898,14 +1907,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1938,7 +1947,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2070,7 +2079,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2152,24 +2161,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2178,20 +2187,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2202,7 +2211,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,7 +2270,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2284,7 +2293,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2301,7 +2310,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2334,7 +2343,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2350,13 +2359,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2367,7 +2376,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2383,13 +2392,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2400,7 +2409,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2449,7 +2458,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2482,7 +2491,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2499,7 +2508,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2515,7 +2524,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,31 +2616,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,31 +2649,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2779,7 +2788,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,7 +2880,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2884,15 +2893,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2911,21 +2920,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,7 +3012,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,7 +3111,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3119,14 +3128,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,31 +3276,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3300,31 +3309,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3472,7 +3481,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3482,14 +3491,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3515,11 +3524,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3571,7 +3580,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3585,10 +3594,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,28 +3705,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3729,28 +3738,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3762,31 +3771,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,7 +3804,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3808,18 +3817,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,28 +3837,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3861,28 +3870,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3894,20 +3903,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3922,38 +3931,71 @@
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5564.1949999999997</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>236</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>49</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>95</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>237</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>238</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5578.6750000000002</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>239</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>240</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>241</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4352,10 +4394,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -416,6 +416,18 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>INHALEX 18MCG 30 INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>415.00</t>
+  </si>
+  <si>
+    <t>-136.9500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ISOPTIN 80MG 30 TAB</t>
   </si>
   <si>
@@ -539,9 +551,6 @@
     <t>-27.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
   </si>
   <si>
@@ -728,7 +737,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 4:58 PM</t>
+    <t>Sunday, 3 August, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2689,7 +2698,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2706,7 +2715,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,11 +2741,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2748,7 +2757,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2831,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>35</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2913,7 +2922,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2926,15 +2935,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2946,28 +2955,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3045,7 +3054,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3062,11 +3071,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3144,7 +3153,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3217,7 +3226,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3234,7 +3243,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3250,7 +3259,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3267,7 +3276,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3293,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,28 +3318,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>35</v>
@@ -3349,13 +3358,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3366,7 +3375,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3425,11 +3434,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3448,7 +3457,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3663,7 +3672,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3712,7 +3721,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3729,7 +3738,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3745,21 +3754,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3788,11 +3797,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3837,7 +3846,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3964,38 +3973,71 @@
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5578.6750000000002</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>239</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>49</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>95</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>240</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>241</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5441.7250000000004</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>242</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>243</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>244</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4399,10 +4441,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -596,9 +605,6 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -728,6 +734,18 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>كريم 555</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -737,7 +755,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 5:12 PM</t>
+    <t>Sunday, 3 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2368,7 +2386,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2378,7 +2396,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2401,13 +2419,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2434,13 +2452,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2451,7 +2469,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2467,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2500,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2533,7 +2551,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2550,7 +2568,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2566,7 +2584,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2592,7 +2610,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2632,7 +2650,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,11 +2660,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2658,28 +2676,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -2691,7 +2709,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2704,18 +2722,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2764,7 +2782,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,11 +2792,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2790,7 +2808,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2823,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2863,7 +2881,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2880,7 +2898,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2896,7 +2914,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2929,7 +2947,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2955,7 +2973,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2968,15 +2986,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2995,13 +3013,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3028,7 +3046,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3104,11 +3122,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3177,7 +3195,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,7 +3228,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3226,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3243,7 +3261,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3259,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3276,7 +3294,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3309,7 +3327,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3325,7 +3343,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,28 +3369,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3391,13 +3409,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3408,7 +3426,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3424,7 +3442,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,11 +3485,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3490,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3556,7 +3574,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3599,11 +3617,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3655,7 +3673,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3669,10 +3687,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,11 +3749,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>35</v>
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,28 +3798,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3830,11 +3848,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3879,7 +3897,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3929,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3962,11 +3980,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3995,49 +4013,148 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>241</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5441.7250000000004</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>242</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>95</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>243</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>244</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>20</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>95</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>243</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>245</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>49</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>95</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>246</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5485.5649999999996</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>248</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>249</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>250</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4446,10 +4563,25 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
@@ -185,6 +194,15 @@
     <t>244.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -227,12 +245,6 @@
     <t>CONCOR 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -245,6 +257,33 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -440,9 +479,6 @@
     <t>ISOPTIN 80MG 30 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -554,9 +590,6 @@
     <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>-27.0000</t>
   </si>
   <si>
@@ -755,7 +788,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 5:24 PM</t>
+    <t>Sunday, 3 August, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,7 +1858,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1875,7 +1908,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1891,7 +1924,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1908,7 +1941,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1924,7 +1957,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1957,7 +1990,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,11 +2000,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1983,14 +2016,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2000,11 +2033,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>35</v>
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,11 +2066,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2049,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2099,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,11 +2132,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2115,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,11 +2165,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>35</v>
@@ -2148,14 +2181,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,11 +2198,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -2181,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,11 +2231,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>35</v>
@@ -2214,31 +2247,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2247,14 +2280,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2280,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,11 +2396,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2379,28 +2412,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2412,14 +2445,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,11 +2462,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>35</v>
@@ -2445,31 +2478,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,11 +2528,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2511,14 +2544,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2561,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,14 +2577,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2594,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2610,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,11 +2627,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>35</v>
@@ -2610,31 +2643,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2650,7 +2683,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2667,7 +2700,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2683,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,31 +2742,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,14 +2775,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2792,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>141</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,14 +2808,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,14 +2841,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2858,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,14 +2874,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,11 +2891,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>35</v>
@@ -2874,31 +2907,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2914,7 +2947,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2931,7 +2964,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2973,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,14 +2990,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2980,7 +3013,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,11 +3023,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3013,24 +3046,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3039,14 +3072,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3072,7 +3105,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3089,14 +3122,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,7 +3162,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,7 +3178,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,11 +3188,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3178,24 +3211,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3254,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3353,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3386,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,7 +3402,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3386,11 +3419,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>35</v>
@@ -3402,31 +3435,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3468,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3485,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3501,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3518,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3508,7 +3541,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3551,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,14 +3567,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3584,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,28 +3600,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>35</v>
@@ -3600,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,11 +3683,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3666,14 +3699,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,11 +3749,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3732,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,11 +3782,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>35</v>
@@ -3765,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3815,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,11 +3848,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3831,31 +3864,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,28 +3897,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3897,31 +3930,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>229</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,31 +3963,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,28 +3996,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3996,28 +4029,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4029,28 +4062,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4062,31 +4095,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4095,66 +4128,231 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>244</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>245</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>108</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>246</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>247</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5485.5649999999996</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>248</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>249</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>108</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>250</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>252</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>253</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>108</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>254</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>255</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>20</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>108</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>254</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>256</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>49</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>108</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>257</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5707.875</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>259</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>260</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>261</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4578,10 +4776,35 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -788,7 +788,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 5:27 PM</t>
+    <t>Sunday, 3 August, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -284,6 +284,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -359,6 +371,12 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -476,6 +494,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>ISOPTIN 80MG 30 TAB</t>
   </si>
   <si>
@@ -728,10 +752,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -788,7 +812,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 5:48 PM</t>
+    <t>Sunday, 3 August, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2254,7 +2278,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2313,7 +2337,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2386,7 +2410,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,11 +2420,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2412,20 +2436,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2452,21 +2476,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>35</v>
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,11 +2552,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2584,7 +2608,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2617,7 +2641,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2650,17 +2674,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2683,7 +2707,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2700,7 +2724,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2716,13 +2740,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2733,7 +2757,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2749,7 +2773,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2782,7 +2806,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2799,7 +2823,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2858,11 +2882,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>35</v>
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,28 +2931,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>35</v>
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2980,24 +3004,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3013,7 +3037,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,14 +3047,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3039,14 +3063,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,14 +3080,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3072,7 +3096,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3089,11 +3113,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3145,7 +3169,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,11 +3179,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>35</v>
@@ -3171,7 +3195,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3188,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3204,31 +3228,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3310,13 +3334,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3343,7 +3367,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,7 +3450,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3452,11 +3476,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>154</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3508,7 +3532,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3525,7 +3549,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3541,7 +3565,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3558,7 +3582,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3574,7 +3598,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3600,31 +3624,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,31 +3723,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3815,11 +3839,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3848,11 +3872,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3864,14 +3888,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3881,11 +3905,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>35</v>
@@ -3897,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,11 +3938,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3930,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,14 +3971,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,7 +4008,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>35</v>
@@ -3996,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4013,11 +4037,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4029,31 +4053,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,31 +4086,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4102,13 +4126,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4119,7 +4143,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,20 +4152,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4168,21 +4192,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4194,31 +4218,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4227,28 +4251,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4260,20 +4284,20 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4281,7 +4305,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4300,59 +4324,158 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5707.875</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>259</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>260</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>261</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>112</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>262</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>263</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>20</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>112</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>262</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>264</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>49</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>112</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>265</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>6038.875</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>267</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>268</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>269</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4801,10 +4924,25 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 5:49 PM</t>
+    <t>Sunday, 3 August, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:10 PM</t>
+    <t>Sunday, 3 August, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>BONE CARE 0.25MCG 30 CAP</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
@@ -251,9 +260,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -356,6 +362,15 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>EPOETIN SEDICO 4000 I.U./ML VIAL.</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>196.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -377,6 +392,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -545,6 +569,15 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
     <t>NAPIZOLE 40MG 14CAP</t>
   </si>
   <si>
@@ -611,6 +644,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -746,16 +788,22 @@
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>67:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -764,7 +812,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -776,9 +824,6 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
@@ -797,9 +842,6 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>كريم 555</t>
   </si>
   <si>
@@ -812,7 +854,13 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:21 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>Sunday, 3 August, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1932,7 +1980,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1948,7 +1996,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1965,7 +2013,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1981,7 +2029,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2031,7 +2079,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2047,7 +2095,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2064,7 +2112,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2080,7 +2128,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,14 +2138,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,14 +2154,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2171,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,14 +2187,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2156,14 +2204,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2172,14 +2220,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,14 +2237,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,11 +2270,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -2238,14 +2286,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2255,11 +2303,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>35</v>
@@ -2271,14 +2319,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,14 +2336,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2304,14 +2352,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2369,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2385,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,14 +2402,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2370,7 +2418,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2387,14 +2435,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2451,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,11 +2468,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2436,14 +2484,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,11 +2501,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2469,28 +2517,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>35</v>
@@ -2502,28 +2550,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>35</v>
@@ -2535,14 +2583,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,7 +2600,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2575,7 +2623,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2633,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2649,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,7 +2666,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2641,7 +2689,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,14 +2699,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2667,14 +2715,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,14 +2732,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2700,7 +2748,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2717,14 +2765,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,28 +2781,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>35</v>
@@ -2766,14 +2814,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,14 +2831,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2799,7 +2847,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2816,14 +2864,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,31 +2880,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,14 +2930,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,14 +2946,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2963,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,14 +2979,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2948,14 +2996,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2964,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2981,11 +3029,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>35</v>
@@ -2997,31 +3045,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,14 +3078,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3070,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3103,24 +3151,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3136,7 +3184,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3195,7 +3243,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3212,11 +3260,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3228,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3268,7 +3316,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3326,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>35</v>
@@ -3294,7 +3342,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3311,11 +3359,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3327,31 +3375,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3425,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3433,7 +3481,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3450,7 +3498,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3466,21 +3514,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3492,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3557,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3598,7 +3646,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3648,7 +3696,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3664,7 +3712,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3681,7 +3729,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3707,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3723,28 +3771,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>35</v>
@@ -3756,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3821,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,28 +3936,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>35</v>
@@ -3921,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,11 +4019,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3987,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,11 +4085,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4053,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,11 +4118,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>35</v>
@@ -4086,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4103,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4136,11 +4184,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4159,24 +4207,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,28 +4233,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4225,13 +4273,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4242,7 +4290,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>248</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,31 +4299,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,28 +4332,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4317,28 +4365,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4350,28 +4398,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4383,28 +4431,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4416,66 +4464,297 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>265</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>114</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>266</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>6038.875</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>267</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c t="s" r="Q98" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>268</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
         <v>269</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>114</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>270</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>271</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>272</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>114</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>273</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>275</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>276</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>114</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>261</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>277</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>20</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>114</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>261</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>278</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>49</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>114</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>279</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>281</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>282</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>114</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>71</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6471.0950000000003</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>283</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>284</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>285</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4939,10 +5218,45 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -791,7 +791,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>67:0</t>
+    <t>68:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -857,10 +857,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>Sunday, 3 August, 2025 6:25 PM</t>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>Sunday, 3 August, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1963,7 +1963,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2590,7 +2590,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2722,7 +2722,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3481,7 +3481,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3778,7 +3778,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -854,13 +854,16 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:27 PM</t>
+    <t>Sunday, 3 August, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4702,7 +4705,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4712,49 +4715,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>283</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>114</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>71</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6471.0950000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>283</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6486.0950000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>284</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
         <v>285</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>286</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5253,10 +5289,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -221,6 +221,30 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>438.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -242,9 +266,6 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -422,9 +443,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -563,7 +581,7 @@
     <t>145.00</t>
   </si>
   <si>
-    <t>72.5000</t>
+    <t>217.5000</t>
   </si>
   <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
@@ -737,6 +755,12 @@
     <t>186.00</t>
   </si>
   <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -797,6 +821,12 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -863,7 +893,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:29 PM</t>
+    <t>Sunday, 3 August, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2128,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2115,7 +2145,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,7 +2154,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2141,14 +2171,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,11 +2204,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2207,11 +2237,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>35</v>
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,11 +2270,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2256,14 +2286,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,11 +2303,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -2289,14 +2319,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,14 +2336,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2322,14 +2352,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,11 +2369,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>35</v>
@@ -2355,14 +2385,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2379,7 +2409,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2395,7 +2425,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2412,7 +2442,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2428,7 +2458,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2438,11 +2468,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2454,14 +2484,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2471,14 +2501,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2487,14 +2517,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2511,7 +2541,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2560,13 +2590,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2593,7 +2623,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2610,7 +2640,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2626,21 +2656,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>35</v>
@@ -2652,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2669,11 +2699,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2685,14 +2715,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2732,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2751,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,11 +2798,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2784,7 +2814,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2801,14 +2831,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2817,14 +2847,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2834,14 +2864,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2850,14 +2880,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,11 +2897,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>35</v>
@@ -2883,24 +2913,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2923,7 +2953,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2940,7 +2970,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2956,13 +2986,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2973,7 +3003,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2989,7 +3019,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3022,7 +3052,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3039,7 +3069,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3065,14 +3095,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3081,14 +3111,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,11 +3128,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>35</v>
@@ -3114,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,14 +3161,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3147,28 +3177,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -3180,14 +3210,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3226,18 +3256,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3253,7 +3283,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,14 +3293,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3279,14 +3309,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,11 +3326,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3312,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,11 +3392,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3378,14 +3408,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,7 +3425,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3418,7 +3448,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3435,7 +3465,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3451,7 +3481,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3491,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,7 +3540,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3523,15 +3553,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3550,7 +3580,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3567,7 +3597,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3583,24 +3613,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3656,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3642,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,14 +3689,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3705,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3708,7 +3738,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3725,14 +3755,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3741,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3765,7 +3795,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3781,13 +3811,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3814,7 +3844,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,14 +3854,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3840,31 +3870,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,14 +3903,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3920,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3913,7 +3943,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,31 +3969,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +4019,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4012,24 +4042,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4118,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,11 +4184,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4187,14 +4217,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,14 +4233,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,14 +4250,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,7 +4266,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4253,11 +4283,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4286,11 +4316,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>35</v>
@@ -4309,7 +4339,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,14 +4349,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4335,14 +4365,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,11 +4382,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4368,31 +4398,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,31 +4431,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4441,21 +4471,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4474,24 +4504,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,31 +4530,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,28 +4563,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4566,31 +4596,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4599,31 +4629,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4632,31 +4662,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4672,21 +4702,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4705,21 +4735,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4731,66 +4761,198 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6486.0950000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>284</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>285</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>20</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>121</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>269</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>49</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>121</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>289</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>291</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>286</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>121</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>264</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>292</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>293</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>121</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>79</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>7200.5550000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>294</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>295</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>296</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5294,10 +5456,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -644,6 +644,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>PRUCASOFT 1MG 14 F.C. TABLETS</t>
   </si>
   <si>
@@ -653,6 +659,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -662,6 +677,9 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>SODIUM BICARB 1000MG 30 CAPS</t>
   </si>
   <si>
@@ -893,7 +911,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:32 PM</t>
+    <t>Sunday, 3 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3821,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,7 +3855,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,7 +3888,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3883,18 +3901,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3943,7 +3961,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,31 +3987,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,31 +4053,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,31 +4152,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4174,7 +4192,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,11 +4268,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,11 +4301,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4299,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4316,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>35</v>
@@ -4332,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,11 +4367,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4365,7 +4383,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4382,11 +4400,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4398,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,11 +4433,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>35</v>
@@ -4431,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4464,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,11 +4499,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4497,31 +4515,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,31 +4548,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,28 +4581,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4596,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4631,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4636,7 +4654,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,14 +4664,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4662,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,14 +4730,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4745,14 +4763,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4778,14 +4796,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4811,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4827,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4867,7 +4885,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4877,11 +4895,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4893,14 +4911,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4910,49 +4928,148 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>294</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>49</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>121</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>295</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>297</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>292</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>121</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>270</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>298</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>299</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>121</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>79</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>7200.5550000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>294</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>295</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>296</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>7562.5550000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>300</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>301</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>302</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5476,10 +5593,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -911,7 +911,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:33 PM</t>
+    <t>Sunday, 3 August, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -128,6 +137,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>APPE-RAISE SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -350,6 +368,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DIMIPERFECTO SERRUM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>260.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -374,9 +404,6 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
@@ -641,9 +668,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -737,6 +761,12 @@
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
@@ -806,6 +836,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -911,7 +953,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:41 PM</t>
+    <t>Sunday, 3 August, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1569,7 +1611,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1578,14 +1620,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1618,7 +1660,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1635,7 +1677,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1644,14 +1686,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1661,14 +1703,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1684,7 +1726,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1694,11 +1736,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1710,14 +1752,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1727,14 +1769,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1743,14 +1785,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1760,14 +1802,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1776,14 +1818,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1793,14 +1835,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1816,7 +1858,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1826,14 +1868,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1842,14 +1884,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1866,7 +1908,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1882,7 +1924,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1892,14 +1934,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1908,14 +1950,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1925,14 +1967,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1941,14 +1983,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1958,11 +2000,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1974,14 +2016,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1998,7 +2040,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2014,7 +2056,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2031,7 +2073,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2047,7 +2089,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2064,7 +2106,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2080,7 +2122,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2097,7 +2139,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2113,7 +2155,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2130,7 +2172,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2146,7 +2188,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2163,7 +2205,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2172,14 +2214,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2189,14 +2231,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2205,14 +2247,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2222,14 +2264,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2238,14 +2280,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2255,14 +2297,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2278,7 +2320,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2295,7 +2337,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2311,7 +2353,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,14 +2363,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2337,14 +2379,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,14 +2396,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2370,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,14 +2429,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2410,7 +2452,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2443,7 +2485,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2460,7 +2502,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2476,7 +2518,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2528,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,14 +2544,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,14 +2561,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2559,7 +2601,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2575,7 +2617,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2592,7 +2634,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2608,7 +2650,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,14 +2660,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2676,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2651,14 +2693,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2667,31 +2709,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,14 +2742,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2724,7 +2766,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2740,7 +2782,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2757,7 +2799,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2773,24 +2815,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2799,14 +2841,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2858,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,14 +2874,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,14 +2891,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,14 +2907,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2882,14 +2924,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2898,14 +2940,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,14 +2957,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2938,7 +2980,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2990,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2964,14 +3006,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2981,14 +3023,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2997,31 +3039,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3030,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3070,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3087,7 +3129,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3103,13 +3145,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3120,7 +3162,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3136,7 +3178,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3153,7 +3195,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3169,7 +3211,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,14 +3221,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3195,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3212,14 +3254,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,31 +3303,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3294,14 +3336,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3311,14 +3353,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3344,14 +3386,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,7 +3402,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3373,18 +3415,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3426,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3584,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3565,7 +3607,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3591,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3650,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,28 +3666,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3657,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3697,7 +3739,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3723,31 +3765,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3798,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3815,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3822,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3895,7 +3937,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3947,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3928,7 +3970,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3954,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,31 +4029,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4079,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,14 +4112,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4093,13 +4135,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4110,7 +4152,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4126,7 +4168,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,31 +4194,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,31 +4293,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,14 +4343,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4409,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,14 +4508,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,14 +4541,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,14 +4557,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4555,7 +4597,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4569,10 +4611,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,14 +4623,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4640,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,31 +4656,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,20 +4689,20 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4671,7 +4713,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4680,31 +4722,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4713,20 +4755,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4734,10 +4776,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,31 +4788,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4779,31 +4821,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4812,31 +4854,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4858,7 +4900,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4866,10 +4908,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,31 +4920,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4911,31 +4953,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,31 +4986,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4977,31 +5019,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5010,66 +5052,231 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>7562.5550000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>300</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>301</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>302</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>306</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>120</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>289</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>307</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>120</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>289</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>308</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>55</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>120</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>309</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>311</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>306</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>120</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>284</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>312</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>313</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>120</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>85</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7956.5550000000003</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>314</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>315</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>316</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5608,10 +5815,35 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
     <t>ALZEPIZIL 10MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -107,9 +116,6 @@
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -281,6 +287,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -500,6 +515,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLIFLOZINO 5MG 30 F.C.TABS</t>
   </si>
   <si>
@@ -584,6 +608,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
     <t>LANTUS SOLOSTAR 100 I.U./ML 1 PEN</t>
   </si>
   <si>
@@ -599,9 +632,6 @@
     <t>44.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -797,6 +827,12 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
+    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -905,6 +941,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -953,7 +1001,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:48 PM</t>
+    <t>Sunday, 3 August, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1741,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1703,14 +1751,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1719,7 +1767,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1736,14 +1784,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1759,7 +1807,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1769,14 +1817,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1785,14 +1833,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1818,14 +1866,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1835,14 +1883,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1851,14 +1899,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1868,14 +1916,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1884,14 +1932,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1901,11 +1949,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1917,14 +1965,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1934,14 +1982,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1957,7 +2005,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1967,14 +2015,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1983,14 +2031,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2000,14 +2048,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2016,14 +2064,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2033,14 +2081,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2049,14 +2097,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2066,11 +2114,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2082,14 +2130,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2099,14 +2147,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2115,14 +2163,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2132,14 +2180,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2148,14 +2196,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2165,14 +2213,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2181,14 +2229,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2198,14 +2246,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2214,14 +2262,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2231,14 +2279,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2247,14 +2295,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2264,14 +2312,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2280,14 +2328,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2297,14 +2345,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2313,14 +2361,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2330,14 +2378,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2346,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2363,14 +2411,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2379,14 +2427,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2396,14 +2444,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2412,14 +2460,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2429,14 +2477,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2445,14 +2493,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2462,11 +2510,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2478,14 +2526,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2495,14 +2543,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2511,14 +2559,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2576,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2544,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2561,14 +2609,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2577,14 +2625,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2594,14 +2642,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2610,14 +2658,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2627,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2643,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,11 +2708,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2676,14 +2724,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,14 +2741,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2709,28 +2757,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2742,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,14 +2807,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2775,31 +2823,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2808,31 +2856,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2841,14 +2889,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2906,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2874,31 +2922,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2907,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2924,7 +2972,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2947,7 +2995,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2957,14 +3005,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2973,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2990,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3013,7 +3061,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,11 +3071,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3039,14 +3087,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3056,14 +3104,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3072,14 +3120,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,14 +3137,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3112,7 +3160,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3129,7 +3177,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3145,24 +3193,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3171,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,31 +3252,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3237,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,11 +3302,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3270,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3287,14 +3335,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3303,14 +3351,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3320,14 +3368,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3336,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3353,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3369,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3402,31 +3450,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3435,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3452,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3475,7 +3523,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3533,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3508,24 +3556,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3541,7 +3589,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3567,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3600,7 +3648,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3617,11 +3665,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3633,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3673,7 +3721,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3699,7 +3747,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3712,15 +3760,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3732,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,31 +3813,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3805,7 +3853,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3822,7 +3870,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3838,7 +3886,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3848,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3864,7 +3912,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3881,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3897,28 +3945,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3930,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3951,10 +3999,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,7 +4044,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4013,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,11 +4094,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4062,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4083,10 +4131,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4095,7 +4143,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4112,11 +4160,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4135,13 +4183,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4152,7 +4200,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4168,7 +4216,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,14 +4226,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,14 +4242,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4259,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,14 +4292,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4260,31 +4308,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,31 +4341,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4333,7 +4381,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4350,7 +4398,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4366,7 +4414,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,14 +4424,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4392,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,31 +4473,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4458,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4572,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,14 +4589,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4557,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,11 +4622,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4590,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,7 +4671,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4640,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,14 +4704,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,11 +4721,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4689,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,14 +4754,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4729,7 +4777,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4755,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4772,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4788,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4805,11 +4853,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>64</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4821,28 +4869,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4854,31 +4902,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,31 +4935,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4920,31 +4968,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4953,31 +5001,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>294</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4986,20 +5034,20 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -5010,7 +5058,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5026,17 +5074,17 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5052,28 +5100,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5085,31 +5133,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,31 +5166,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5151,31 +5199,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5184,28 +5232,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5217,66 +5265,264 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>85</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7956.5550000000003</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>314</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>315</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>316</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>317</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>318</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>125</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>319</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>321</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>322</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>125</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>301</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>323</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>125</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>301</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>324</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>57</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>125</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>325</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>327</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>322</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>125</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>296</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>328</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>329</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>125</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>87</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>8453.4549999999999</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>330</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>331</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>332</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5840,10 +6086,40 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>59.4000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
   </si>
   <si>
     <t>INHALEX 18MCG 30 INH. CAPS.+ INH. DEVICE</t>
@@ -3606,7 +3615,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,11 +3674,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,31 +3756,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3793,7 +3802,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3820,7 +3829,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3834,10 +3843,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3952,13 +3961,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3969,7 +3978,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3985,13 +3994,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4018,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4150,7 +4159,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,7 +4185,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4216,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4233,7 +4242,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,7 +4258,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4308,31 +4317,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4348,24 +4357,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,14 +4400,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>85</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4414,7 +4423,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4431,7 +4440,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4447,7 +4456,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,28 +4482,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>40</v>
@@ -4513,13 +4522,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4530,7 +4539,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4546,7 +4555,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,11 +4763,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,11 +4796,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4869,7 +4878,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4886,7 +4895,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4909,7 +4918,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4926,7 +4935,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4942,7 +4951,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4975,7 +4984,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4985,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5041,21 +5050,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5100,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5140,7 +5149,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,7 +5175,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,10 +5229,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>309</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5239,7 +5248,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5319,7 +5328,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,11 +5357,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,7 +5390,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5397,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,11 +5423,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5437,7 +5446,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5447,11 +5456,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5480,49 +5489,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>331</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>332</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>125</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>87</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>88</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>8453.4549999999999</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>330</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>331</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>332</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>8933.4549999999999</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>333</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>334</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>335</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6116,10 +6158,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 6:58 PM</t>
+    <t>Sunday, 3 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -59,12 +59,21 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>ALEJON WHITENING CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>275.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -296,6 +305,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>33.5000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -971,12 +989,15 @@
     <t>6.00</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">فازلين بيور صغير </t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -1010,7 +1031,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:02 PM</t>
+    <t>Sunday, 3 August, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1701,7 +1722,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1710,7 +1731,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1727,14 +1748,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1750,7 +1771,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1760,11 +1781,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1783,7 +1804,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1793,14 +1814,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1809,7 +1830,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1826,14 +1847,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1849,7 +1870,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1859,14 +1880,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1875,14 +1896,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1892,11 +1913,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1908,14 +1929,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1941,14 +1962,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1958,14 +1979,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1981,7 +2002,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2014,7 +2035,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2024,14 +2045,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2040,14 +2061,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2057,14 +2078,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2073,14 +2094,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2097,7 +2118,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2113,7 +2134,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2123,14 +2144,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2179,7 +2200,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2196,7 +2217,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2212,7 +2233,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2229,7 +2250,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2245,7 +2266,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2262,7 +2283,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2278,7 +2299,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2295,7 +2316,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2311,7 +2332,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2328,7 +2349,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2344,7 +2365,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2361,7 +2382,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2370,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>85</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2403,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2420,14 +2441,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2443,7 +2464,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2460,7 +2481,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2493,7 +2514,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2509,7 +2530,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2526,7 +2547,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2542,7 +2563,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2552,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,11 +2606,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2641,7 +2662,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2674,7 +2695,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2691,7 +2712,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2707,7 +2728,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2717,14 +2738,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2766,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2806,7 +2827,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2823,7 +2844,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2839,21 +2860,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2865,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2882,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2898,31 +2919,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,20 +2952,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2955,7 +2976,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2971,7 +2992,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2988,7 +3009,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3004,13 +3025,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3021,7 +3042,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3037,7 +3058,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3047,11 +3068,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3063,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,14 +3101,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3096,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,14 +3134,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3129,14 +3150,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,7 +3167,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3169,7 +3190,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3186,7 +3207,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3202,7 +3223,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3212,14 +3233,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3228,14 +3249,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,14 +3266,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,31 +3282,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3301,7 +3322,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3318,7 +3339,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3334,13 +3355,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3351,7 +3372,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3367,7 +3388,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3400,7 +3421,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3433,7 +3454,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3450,7 +3471,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3466,7 +3487,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3497,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,14 +3513,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3509,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3542,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,31 +3579,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,7 +3645,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3637,18 +3658,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>194</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,7 +3678,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3674,14 +3695,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3697,7 +3718,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,11 +3761,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3756,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,14 +3794,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,28 +3810,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3822,14 +3843,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3860,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3862,13 +3883,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3876,10 +3897,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,7 +3909,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3905,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3959,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,7 +4008,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4000,15 +4021,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4027,7 +4048,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4044,7 +4065,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4060,24 +4081,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4086,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,11 +4124,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4119,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4157,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4173,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4190,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,7 +4206,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4202,11 +4223,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4218,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,7 +4289,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4308,7 +4329,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4324,7 +4345,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4355,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4350,31 +4371,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4421,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,31 +4437,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4489,7 +4510,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,31 +4536,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4588,24 +4609,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,11 +4685,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4680,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4697,14 +4718,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,11 +4784,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4796,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,11 +4850,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4845,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4862,14 +4883,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,11 +4916,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4911,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,14 +4949,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,14 +4982,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4984,7 +5005,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5001,7 +5022,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5017,7 +5038,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5027,14 +5048,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,14 +5081,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,28 +5097,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5109,28 +5130,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5142,28 +5163,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5175,31 +5196,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,31 +5229,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,7 +5262,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5254,18 +5275,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5281,24 +5302,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5307,31 +5328,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,28 +5361,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5373,28 +5394,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5413,21 +5434,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5439,28 +5460,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5472,28 +5493,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5505,66 +5526,165 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>8933.4549999999999</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>333</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>334</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>60</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>131</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>335</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>337</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>332</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>131</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>305</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>338</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>339</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>131</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>90</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>9291.9549999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>340</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>341</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>342</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6163,10 +6283,25 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>BIOVITA 60 GUMMIES</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CHROMAX 60 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -353,6 +371,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTRACTUBEX TOP. GEL 20 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -656,9 +683,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -737,9 +761,6 @@
     <t>88.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -1031,7 +1052,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:08 PM</t>
+    <t>Sunday, 3 August, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2233,7 +2254,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2250,7 +2271,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2283,7 +2304,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2299,7 +2320,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2316,7 +2337,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2332,7 +2353,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2349,7 +2370,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2365,7 +2386,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2398,7 +2419,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2415,7 +2436,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2424,14 +2445,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2441,14 +2462,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2457,14 +2478,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2474,14 +2495,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2497,7 +2518,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2514,7 +2535,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2547,7 +2568,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2596,7 +2617,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2613,7 +2634,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2629,7 +2650,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2639,11 +2660,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>43</v>
@@ -2655,14 +2676,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2672,11 +2693,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2688,14 +2709,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2705,11 +2726,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>43</v>
@@ -2728,7 +2749,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2738,14 +2759,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2761,7 +2782,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2794,7 +2815,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2837,14 +2858,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2910,7 +2931,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2926,24 +2947,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2985,7 +3006,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3002,11 +3023,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>43</v>
@@ -3018,31 +3039,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3075,7 +3096,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3091,7 +3112,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3124,24 +3145,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3167,11 +3188,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3233,11 +3254,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3266,14 +3287,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3289,7 +3310,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3315,7 +3336,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3348,28 +3369,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>43</v>
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3421,7 +3442,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3438,7 +3459,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3454,13 +3475,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3471,7 +3492,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3487,7 +3508,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3520,7 +3541,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3537,7 +3558,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3553,7 +3574,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3563,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,11 +3650,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>43</v>
@@ -3645,31 +3666,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3695,14 +3716,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3728,14 +3749,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3757,18 +3778,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3784,7 +3805,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3860,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,7 +3897,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3889,15 +3910,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3909,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3926,11 +3947,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3959,11 +3980,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>43</v>
@@ -3975,7 +3996,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3988,18 +4009,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4008,7 +4029,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4025,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4041,14 +4062,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4058,11 +4079,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>43</v>
@@ -4074,7 +4095,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4087,18 +4108,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,11 +4145,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4157,14 +4178,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4180,13 +4201,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4213,7 +4234,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4223,11 +4244,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4256,14 +4277,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4272,7 +4293,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4289,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4305,7 +4326,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4345,7 +4366,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4388,11 +4409,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4404,7 +4425,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4450,7 +4471,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4461,7 +4482,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4477,7 +4498,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,14 +4541,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4536,31 +4557,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>43</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4609,13 +4630,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4626,7 +4647,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4642,7 +4663,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4659,7 +4680,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4675,7 +4696,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4708,21 +4729,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>43</v>
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,11 +4805,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4800,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>43</v>
@@ -4833,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,7 +4871,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4873,7 +4894,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,11 +4904,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4906,7 +4927,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4939,7 +4960,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4965,7 +4986,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4982,11 +5003,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4998,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,7 +5036,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5038,7 +5059,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5052,7 +5073,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>43</v>
@@ -5064,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5081,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5097,14 +5118,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,11 +5135,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,14 +5168,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,31 +5184,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,20 +5217,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5229,28 +5250,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5262,20 +5283,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5283,10 +5304,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,31 +5316,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>315</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5328,20 +5349,20 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5349,10 +5370,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5361,31 +5382,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5394,31 +5415,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5427,31 +5448,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,7 +5481,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5473,15 +5494,15 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5493,28 +5514,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5533,21 +5554,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5559,28 +5580,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>60</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5592,28 +5613,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5625,66 +5646,165 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>9291.9549999999999</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>340</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>341</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>60</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>140</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
         <v>342</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>344</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>339</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>140</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>312</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>345</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>346</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>140</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>93</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>9762.9549999999999</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>347</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>348</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>349</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6298,10 +6418,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -1052,7 +1052,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:22 PM</t>
+    <t>Sunday, 3 August, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -806,6 +806,12 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -1052,7 +1058,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:23 PM</t>
+    <t>Sunday, 3 August, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4673,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4722,28 +4728,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>43</v>
@@ -4755,31 +4761,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4821,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4861,7 +4867,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,14 +4877,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4894,7 +4900,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4920,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4960,7 +4966,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +4976,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5019,14 +5025,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,11 +5042,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5059,7 +5065,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5075,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5092,7 +5098,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5135,11 +5141,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5151,14 +5157,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,14 +5174,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5207,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>43</v>
@@ -5217,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,14 +5240,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5283,28 +5289,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5316,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,11 +5339,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5349,14 +5355,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,11 +5372,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5382,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5403,10 +5409,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5436,10 +5442,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>322</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,7 +5454,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5465,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>33</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5481,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,14 +5504,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5514,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,11 +5537,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5547,14 +5553,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,11 +5570,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5587,7 +5593,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,11 +5603,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>118</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5613,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>149</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5653,7 +5659,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,7 +5669,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5679,14 +5685,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5702,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5712,14 +5718,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>339</v>
+        <v>60</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,11 +5735,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5745,14 +5751,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5762,49 +5768,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>347</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>348</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>140</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>93</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>94</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>9762.9549999999999</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>347</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>348</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>9892.9549999999999</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>349</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>350</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>351</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6433,10 +6472,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -251,99 +251,102 @@
     <t>99.00</t>
   </si>
   <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>438.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CHROMAX 60 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>33.5000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>32.6700</t>
   </si>
   <si>
-    <t>CATAFLAM 25 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>438.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>CHROMAX 60 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>33.5000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>CONCOR 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -1058,7 +1061,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:24 PM</t>
+    <t>Sunday, 3 August, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2392,7 +2395,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2409,7 +2412,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2418,7 +2421,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>43</v>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2468,14 +2471,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2484,7 +2487,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2623,7 +2626,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2640,7 +2643,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2689,7 +2692,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>43</v>
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2769,7 +2772,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2781,7 +2784,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2798,11 +2801,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>43</v>
@@ -2814,7 +2817,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>43</v>
@@ -2847,7 +2850,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2880,7 +2883,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>43</v>
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2946,7 +2949,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2963,11 +2966,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2996,11 +2999,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3012,7 +3015,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3029,11 +3032,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>43</v>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3058,15 +3061,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>43</v>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3128,11 +3131,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>43</v>
@@ -3144,7 +3147,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3157,15 +3160,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>43</v>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3194,11 +3197,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3210,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3227,11 +3230,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>43</v>
@@ -3243,7 +3246,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3264,7 +3267,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3276,7 +3279,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3309,7 +3312,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3342,7 +3345,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3359,11 +3362,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3392,11 +3395,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>43</v>
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3429,7 +3432,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>43</v>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>43</v>
@@ -3474,7 +3477,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3487,15 +3490,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>43</v>
@@ -3507,7 +3510,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3540,7 +3543,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3557,11 +3560,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3590,11 +3593,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3623,11 +3626,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3639,7 +3642,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3656,11 +3659,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>43</v>
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3693,7 +3696,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,11 +3725,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>43</v>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3759,7 +3762,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>43</v>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3784,15 +3787,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>43</v>
@@ -3804,7 +3807,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>33</v>
@@ -3837,7 +3840,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,7 +3873,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3891,7 +3894,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3903,7 +3906,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3920,11 +3923,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3936,7 +3939,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3969,7 +3972,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>43</v>
@@ -4002,7 +4005,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4015,15 +4018,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4035,7 +4038,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4068,7 +4071,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4085,11 +4088,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>43</v>
@@ -4101,7 +4104,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4118,11 +4121,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4134,7 +4137,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>43</v>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4213,15 +4216,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4266,7 +4269,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4287,7 +4290,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4299,7 +4302,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4316,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4332,7 +4335,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,14 +4385,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4398,7 +4401,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4431,7 +4434,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>43</v>
@@ -4464,7 +4467,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4481,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4497,7 +4500,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4514,11 +4517,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4530,7 +4533,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4551,7 +4554,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4563,7 +4566,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4576,15 +4579,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>43</v>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4617,10 +4620,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4662,7 +4665,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4683,7 +4686,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4695,7 +4698,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4728,7 +4731,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4745,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>43</v>
@@ -4761,7 +4764,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4774,15 +4777,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>43</v>
@@ -4794,7 +4797,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4811,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,7 +4830,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4844,11 +4847,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4860,7 +4863,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4881,7 +4884,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>43</v>
@@ -4893,14 +4896,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,11 +4913,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4926,7 +4929,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4976,11 +4979,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>43</v>
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5042,11 +5045,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5058,14 +5061,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5091,7 +5094,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5108,11 +5111,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>43</v>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5145,7 +5148,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5157,7 +5160,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5174,11 +5177,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5190,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,11 +5210,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>43</v>
@@ -5223,7 +5226,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5240,11 +5243,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>43</v>
@@ -5256,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,11 +5276,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5289,14 +5292,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,11 +5309,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5322,28 +5325,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5355,28 +5358,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5388,28 +5391,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5421,7 +5424,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5434,18 +5437,18 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,7 +5457,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5467,18 +5470,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,7 +5490,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5500,15 +5503,15 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>33</v>
@@ -5520,28 +5523,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5553,28 +5556,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5586,28 +5589,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5619,28 +5622,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5652,28 +5655,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5685,7 +5688,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5698,15 +5701,15 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5718,7 +5721,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5731,15 +5734,15 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5751,28 +5754,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5784,20 +5787,20 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
@@ -5813,13 +5816,13 @@
     </row>
     <row r="132" ht="25.5" customHeight="1">
       <c r="P132" s="13">
-        <v>9892.9549999999999</v>
+        <v>9968.5249999999996</v>
       </c>
       <c r="Q132" s="13"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
       <c t="s" r="A133" s="14">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -5827,13 +5830,13 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c t="s" r="G133" s="15">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="16"/>
       <c t="s" r="K133" s="17">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L133" s="17"/>
       <c r="M133" s="17"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>85.8000</t>
   </si>
   <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -513,12 +522,6 @@
   </si>
   <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
   </si>
   <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
@@ -2659,7 +2662,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2676,7 +2679,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2692,7 +2695,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2709,7 +2712,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2725,7 +2728,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2738,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2791,7 +2794,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2824,7 +2827,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2857,7 +2860,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2874,7 +2877,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2890,7 +2893,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2907,7 +2910,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2923,7 +2926,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2973,7 +2976,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2989,7 +2992,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3006,7 +3009,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3039,7 +3042,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3055,24 +3058,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3081,31 +3084,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3154,13 +3157,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3187,13 +3190,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3204,7 +3207,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3220,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3237,7 +3240,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3253,7 +3256,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,11 +3299,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3352,7 +3355,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3369,7 +3372,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3385,7 +3388,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3398,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>43</v>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>43</v>
@@ -3477,28 +3480,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>43</v>
@@ -3510,31 +3513,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3642,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,11 +3761,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>43</v>
@@ -3774,28 +3777,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>43</v>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3820,18 +3823,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3840,7 +3843,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3873,7 +3876,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,11 +3926,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4005,31 +4008,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4051,15 +4054,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4111,7 +4114,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4137,7 +4140,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4177,7 +4180,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,14 +4190,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4203,31 +4206,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4236,28 +4239,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4286,14 +4289,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4335,7 +4338,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4352,11 +4355,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4375,7 +4378,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4434,7 +4437,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4533,7 +4536,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4550,11 +4553,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4573,24 +4576,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4599,31 +4602,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>210</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>81</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4698,7 +4701,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4771,21 +4774,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>43</v>
@@ -4797,31 +4800,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4870,7 +4873,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,14 +4883,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,11 +4949,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4969,7 +4972,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5015,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,14 +5031,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,11 +5048,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5068,7 +5071,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,11 +5081,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5094,14 +5097,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5127,14 +5130,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5147,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,7 +5163,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5177,11 +5180,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,11 +5246,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>43</v>
@@ -5259,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,11 +5312,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5325,28 +5328,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5358,28 +5361,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5398,21 +5401,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5424,31 +5427,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,7 +5460,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5470,18 +5473,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>325</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5490,7 +5493,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5503,18 +5506,18 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>33</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,31 +5526,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,28 +5559,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5589,28 +5592,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5622,28 +5625,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5655,28 +5658,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5688,28 +5691,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5728,21 +5731,21 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5754,28 +5757,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>60</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5794,59 +5797,92 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>349</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>350</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>144</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>93</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>94</v>
       </c>
-      <c t="s" r="Q131" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>9968.5249999999996</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>350</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>9996.5249999999996</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
         <v>351</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
         <v>352</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>353</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6480,10 +6516,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -635,6 +635,15 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t>IMMUNO-MASH 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>INHALEX 18MCG 30 INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -701,6 +710,12 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
+    <t>MAXICAL D SUSPENSION 120 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>METROHALER 12 MCG 30 CAP+INHALER</t>
   </si>
   <si>
@@ -860,9 +875,6 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -942,6 +954,12 @@
   </si>
   <si>
     <t>30.0000</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>77.00</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -3883,7 +3901,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3900,7 +3918,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3909,7 +3927,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4008,7 +4026,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4041,31 +4059,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4087,7 +4105,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4114,7 +4132,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4246,21 +4264,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4305,31 +4323,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4345,7 +4363,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4378,7 +4396,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4425,10 +4443,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4437,7 +4455,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4454,11 +4472,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4477,7 +4495,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4487,14 +4505,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4520,7 +4538,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4557,10 +4575,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4586,11 +4604,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4602,31 +4620,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4675,13 +4693,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4692,7 +4710,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4708,7 +4726,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4741,7 +4759,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4758,7 +4776,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4774,7 +4792,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4784,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4800,31 +4818,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4866,31 +4884,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,11 +4967,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,11 +5066,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>93</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5064,7 +5082,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5081,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5097,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5114,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5130,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5170,7 +5188,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5180,7 +5198,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5203,7 +5221,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5217,10 +5235,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5229,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>70</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5262,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5295,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5328,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5345,14 +5363,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,28 +5379,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5394,20 +5412,20 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5415,7 +5433,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5427,28 +5445,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5460,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5477,14 +5495,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>94</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5500,7 +5518,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5510,14 +5528,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>326</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5526,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5559,14 +5577,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>331</v>
+        <v>17</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>333</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5592,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,14 +5627,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5625,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,14 +5660,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5658,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5675,11 +5693,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5691,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5708,11 +5726,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5724,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,11 +5759,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5764,7 +5782,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5797,7 +5815,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5807,11 +5825,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5823,14 +5841,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5840,49 +5858,148 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>351</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>60</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>144</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>352</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>354</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>349</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>144</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>322</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>355</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>356</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>144</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>93</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>94</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>9996.5249999999996</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>351</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>352</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>353</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>10161.125</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>357</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>358</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>359</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6521,10 +6638,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:27 PM</t>
+    <t>Sunday, 3 August, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -404,9 +404,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>0:-3</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -1082,7 +1079,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:28 PM</t>
+    <t>Sunday, 3 August, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2977,7 +2974,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2987,11 +2984,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3003,7 +3000,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3020,11 +3017,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -3036,7 +3033,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3053,11 +3050,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3069,7 +3066,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3086,11 +3083,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>43</v>
@@ -3102,7 +3099,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3115,15 +3112,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3135,14 +3132,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3152,11 +3149,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>43</v>
@@ -3168,7 +3165,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3185,11 +3182,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>43</v>
@@ -3201,7 +3198,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3214,15 +3211,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>43</v>
@@ -3234,7 +3231,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3251,11 +3248,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3267,7 +3264,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3284,11 +3281,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>43</v>
@@ -3300,7 +3297,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3321,7 +3318,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3333,7 +3330,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3350,11 +3347,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3366,7 +3363,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3383,11 +3380,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>81</v>
@@ -3399,7 +3396,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3449,11 +3446,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>43</v>
@@ -3465,7 +3462,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3486,7 +3483,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>43</v>
@@ -3498,7 +3495,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3515,11 +3512,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>43</v>
@@ -3531,7 +3528,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3544,15 +3541,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>43</v>
@@ -3564,7 +3561,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3581,11 +3578,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3597,7 +3594,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3614,11 +3611,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3630,7 +3627,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3647,11 +3644,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3663,7 +3660,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3680,11 +3677,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3713,11 +3710,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>43</v>
@@ -3729,7 +3726,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3762,7 +3759,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3779,11 +3776,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>43</v>
@@ -3795,7 +3792,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3816,7 +3813,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>43</v>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3841,15 +3838,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>43</v>
@@ -3861,7 +3858,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3878,11 +3875,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3894,7 +3891,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3911,11 +3908,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>43</v>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3944,14 +3941,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3960,7 +3957,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3981,7 +3978,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3993,7 +3990,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4014,7 +4011,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4026,7 +4023,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4076,11 +4073,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>43</v>
@@ -4092,7 +4089,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4105,15 +4102,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4125,7 +4122,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4142,11 +4139,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4158,7 +4155,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4179,7 +4176,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>43</v>
@@ -4191,7 +4188,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4208,11 +4205,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4224,7 +4221,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4257,7 +4254,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4274,11 +4271,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4307,11 +4304,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>43</v>
@@ -4323,7 +4320,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4336,15 +4333,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4356,7 +4353,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4373,11 +4370,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4389,7 +4386,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4410,7 +4407,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4422,7 +4419,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4439,11 +4436,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4455,7 +4452,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4488,14 +4485,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4505,7 +4502,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4521,7 +4518,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4542,7 +4539,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4554,7 +4551,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4571,7 +4568,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4587,7 +4584,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4604,11 +4601,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4620,7 +4617,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4637,11 +4634,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4653,7 +4650,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4674,7 +4671,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4686,7 +4683,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4699,15 +4696,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>43</v>
@@ -4719,7 +4716,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4740,10 +4737,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4752,14 +4749,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,11 +4766,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>81</v>
@@ -4785,7 +4782,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4806,7 +4803,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4818,7 +4815,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4835,11 +4832,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4851,7 +4848,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4868,11 +4865,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>43</v>
@@ -4884,7 +4881,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4897,15 +4894,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>43</v>
@@ -4917,7 +4914,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4934,11 +4931,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>81</v>
@@ -4950,7 +4947,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4983,7 +4980,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5004,7 +5001,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>43</v>
@@ -5016,7 +5013,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5033,11 +5030,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5049,7 +5046,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5082,7 +5079,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5099,11 +5096,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>43</v>
@@ -5115,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,11 +5129,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5148,7 +5145,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5165,11 +5162,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5181,14 +5178,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5202,7 +5199,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5214,7 +5211,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5231,11 +5228,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>43</v>
@@ -5247,7 +5244,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5268,7 +5265,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5280,7 +5277,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5297,11 +5294,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5313,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,11 +5327,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>43</v>
@@ -5346,7 +5343,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5363,11 +5360,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>43</v>
@@ -5379,14 +5376,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,11 +5393,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5412,7 +5409,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5429,11 +5426,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5445,14 +5442,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,11 +5459,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5478,28 +5475,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5511,7 +5508,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5524,15 +5521,15 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5544,28 +5541,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5577,7 +5574,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5590,11 +5587,11 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5610,7 +5607,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5623,18 +5620,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5643,7 +5640,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5656,15 +5653,15 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>33</v>
@@ -5676,28 +5673,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5709,28 +5706,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5742,20 +5739,20 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5763,7 +5760,7 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5775,28 +5772,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5808,28 +5805,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5841,7 +5838,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5854,15 +5851,15 @@
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5874,7 +5871,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5887,15 +5884,15 @@
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5907,28 +5904,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5940,20 +5937,20 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
@@ -5975,7 +5972,7 @@
     </row>
     <row r="137" ht="16.5" customHeight="1">
       <c t="s" r="A137" s="14">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -5983,13 +5980,13 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c t="s" r="G137" s="15">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="16"/>
       <c t="s" r="K137" s="17">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L137" s="17"/>
       <c r="M137" s="17"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
@@ -281,9 +290,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>53.4600</t>
   </si>
   <si>
@@ -1079,7 +1085,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:45 PM</t>
+    <t>Sunday, 3 August, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2287,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2298,7 +2304,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2314,7 +2320,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2331,7 +2337,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2364,7 +2370,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2380,7 +2386,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2397,7 +2403,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2413,7 +2419,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2430,7 +2436,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2456,14 +2462,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2479,7 +2485,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2496,7 +2502,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>81</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2545,7 +2551,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2555,14 +2561,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2588,11 +2594,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2604,7 +2610,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2637,14 +2643,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2670,14 +2676,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2687,14 +2693,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2753,14 +2759,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2769,14 +2775,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2786,14 +2792,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2809,7 +2815,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2819,14 +2825,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2885,11 +2891,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>43</v>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2918,14 +2924,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2934,14 +2940,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2951,14 +2957,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2984,14 +2990,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3000,14 +3006,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3017,14 +3023,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3066,7 +3072,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3099,31 +3105,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3132,31 +3138,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3182,11 +3188,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>43</v>
@@ -3198,28 +3204,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>43</v>
@@ -3231,31 +3237,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3314,14 +3320,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3337,7 +3343,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3347,7 +3353,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3370,7 +3376,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3479,7 +3485,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3502,7 +3508,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3512,11 +3518,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>43</v>
@@ -3528,28 +3534,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>43</v>
@@ -3561,31 +3567,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3611,11 +3617,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3644,11 +3650,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3677,11 +3683,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3710,14 +3716,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3792,14 +3798,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3809,7 +3815,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3832,17 +3838,17 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3871,18 +3877,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3924,14 +3930,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3941,14 +3947,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3957,7 +3963,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3974,14 +3980,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>215</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3997,7 +4003,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4007,7 +4013,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4030,7 +4036,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4040,11 +4046,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4056,7 +4062,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4096,24 +4102,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4122,7 +4128,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4135,15 +4141,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4172,14 +4178,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4205,14 +4211,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4221,7 +4227,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4271,11 +4277,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4304,14 +4310,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4320,31 +4326,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4353,28 +4359,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4403,14 +4409,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4426,7 +4432,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4452,7 +4458,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4469,11 +4475,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4485,14 +4491,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,14 +4508,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4518,14 +4524,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,14 +4541,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4591,7 +4597,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4605,10 +4611,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4617,14 +4623,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4650,7 +4656,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4667,11 +4673,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4683,31 +4689,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4716,31 +4722,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>213</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4756,7 +4762,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>81</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4799,14 +4805,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4832,14 +4838,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4848,14 +4854,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4865,14 +4871,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4881,28 +4887,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>43</v>
@@ -4914,31 +4920,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4947,14 +4953,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,14 +4970,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4980,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,14 +5003,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5020,7 +5026,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5030,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5046,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5063,11 +5069,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5079,14 +5085,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5096,14 +5102,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5119,7 +5125,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5129,14 +5135,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5145,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5162,11 +5168,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5178,14 +5184,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5195,11 +5201,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5218,7 +5224,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>293</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5228,14 +5234,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5251,7 +5257,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5261,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5294,11 +5300,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5310,14 +5316,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5327,14 +5333,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,14 +5349,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5360,11 +5366,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>43</v>
@@ -5376,14 +5382,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5393,14 +5399,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5409,14 +5415,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5426,11 +5432,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5449,7 +5455,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5463,7 +5469,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5475,28 +5481,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5508,28 +5514,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5541,28 +5547,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5574,20 +5580,20 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5595,10 +5601,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5620,7 +5626,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5628,10 +5634,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>331</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5640,7 +5646,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5653,18 +5659,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>33</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5673,31 +5679,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>336</v>
+        <v>17</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5706,28 +5712,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5739,28 +5745,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>122</v>
+        <v>343</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5779,21 +5785,21 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>345</v>
+        <v>124</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5805,28 +5811,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5845,21 +5851,21 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5871,28 +5877,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5904,28 +5910,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5937,66 +5943,99 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>94</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>10161.125</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>356</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
         <v>357</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>145</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>95</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>10187.855</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
         <v>358</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>359</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>360</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6650,10 +6689,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -485,6 +494,18 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EPOETIN SEDICO 4000 I.U./ML VIAL.</t>
   </si>
   <si>
@@ -545,12 +566,21 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -716,168 +746,174 @@
     <t>MAXICAL D SUSPENSION 120 ML</t>
   </si>
   <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>56.7600</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40MG 14CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>131.6700</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PRUCASOFT 1MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-27.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
+  </si>
+  <si>
+    <t>362.50</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>METROHALER 12 MCG 30 CAP+INHALER</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>56.7600</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40MG 14CAP</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>131.6700</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PRUCASOFT 1MG 14 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>SODIUM BICARB 1000MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 50MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-27.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
-  </si>
-  <si>
-    <t>362.50</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>186.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -890,9 +926,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -944,9 +977,6 @@
     <t>138.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>YEAST MEPACO 60 TABS</t>
   </si>
   <si>
@@ -971,9 +1001,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -1010,7 +1037,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1085,7 +1112,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:46 PM</t>
+    <t>Sunday, 3 August, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2980,7 +3007,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3013,7 +3040,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3030,7 +3057,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3046,7 +3073,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3063,7 +3090,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3079,7 +3106,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3096,7 +3123,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3129,7 +3156,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3145,24 +3172,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3171,31 +3198,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3244,13 +3271,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3277,13 +3304,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3294,7 +3321,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3310,7 +3337,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3353,11 +3380,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3386,14 +3413,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3419,14 +3446,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3452,11 +3479,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3468,7 +3495,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3551,11 +3578,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>43</v>
@@ -3567,28 +3594,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>43</v>
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3617,14 +3644,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3640,7 +3667,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3650,11 +3677,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3666,31 +3693,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3716,11 +3743,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3749,14 +3776,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3782,14 +3809,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3798,7 +3825,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3815,14 +3842,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3831,14 +3858,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3848,11 +3875,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>43</v>
@@ -3864,31 +3891,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3897,14 +3924,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3941,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3930,14 +3957,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3947,11 +3974,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>43</v>
@@ -3963,7 +3990,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3976,18 +4003,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>215</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4013,14 +4040,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4029,14 +4056,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4046,14 +4073,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4062,14 +4089,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,14 +4106,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4095,14 +4122,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4112,14 +4139,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4128,7 +4155,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4141,15 +4168,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4161,14 +4188,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4178,11 +4205,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4194,14 +4221,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4211,11 +4238,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>43</v>
@@ -4227,7 +4254,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4240,18 +4267,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4260,7 +4287,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4277,11 +4304,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4293,14 +4320,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4310,14 +4337,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4326,14 +4353,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4343,14 +4370,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4359,7 +4386,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4372,15 +4399,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4392,14 +4419,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4409,14 +4436,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4425,14 +4452,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,14 +4469,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4458,28 +4485,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4491,14 +4518,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4508,11 +4535,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4524,14 +4551,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,14 +4568,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4557,7 +4584,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4574,11 +4601,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4590,7 +4617,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4607,14 +4634,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4623,14 +4650,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4640,14 +4667,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4656,7 +4683,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4673,11 +4700,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4689,7 +4716,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4706,14 +4733,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4722,7 +4749,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4735,18 +4762,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4755,14 +4782,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4772,14 +4799,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4788,14 +4815,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4805,14 +4832,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4821,31 +4848,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4854,14 +4881,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,14 +4898,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4887,14 +4914,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4931,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,31 +4947,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4953,14 +4980,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4970,14 +4997,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4986,14 +5013,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5003,14 +5030,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5019,28 +5046,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>43</v>
@@ -5052,14 +5079,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5069,14 +5096,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5085,14 +5112,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,11 +5129,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5118,14 +5145,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5135,11 +5162,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>43</v>
@@ -5151,14 +5178,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5168,11 +5195,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>153</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5184,14 +5211,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,11 +5228,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5217,14 +5244,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5234,14 +5261,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5250,14 +5277,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5294,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5283,7 +5310,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5300,11 +5327,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5316,14 +5343,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,11 +5360,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5349,14 +5376,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,11 +5393,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>43</v>
@@ -5382,14 +5409,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5399,14 +5426,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,14 +5442,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,11 +5459,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5448,14 +5475,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,14 +5492,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5481,14 +5508,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,14 +5525,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,28 +5541,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5547,28 +5574,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5580,28 +5607,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>187</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5613,31 +5640,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>96</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5646,20 +5673,20 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5667,10 +5694,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5679,31 +5706,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5712,20 +5739,20 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
@@ -5733,10 +5760,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>340</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5745,31 +5772,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5778,31 +5805,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5818,21 +5845,21 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5844,28 +5871,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5877,28 +5904,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5910,28 +5937,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5943,28 +5970,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -5976,66 +6003,165 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>361</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>60</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>148</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>362</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>364</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>359</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>148</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>332</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>365</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>366</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>148</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>95</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
         <v>96</v>
       </c>
-      <c t="s" r="Q136" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>10187.855</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>358</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>359</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
-        <v>360</v>
-      </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>10386.08</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>367</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>368</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>369</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6694,10 +6820,25 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -1112,7 +1112,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 7:51 PM</t>
+    <t>Sunday, 3 August, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -981,9 +990,6 @@
   </si>
   <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
@@ -2050,7 +2056,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2060,14 +2066,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2076,14 +2082,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2100,7 +2106,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2116,7 +2122,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2149,7 +2155,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2175,14 +2181,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2192,14 +2198,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2232,7 +2238,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2248,7 +2254,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2258,14 +2264,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2274,14 +2280,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2314,7 +2320,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2331,7 +2337,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2347,7 +2353,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2364,7 +2370,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2380,7 +2386,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2397,7 +2403,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2413,7 +2419,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2430,7 +2436,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2446,7 +2452,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2463,7 +2469,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2479,7 +2485,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2496,7 +2502,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2545,7 +2551,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2562,7 +2568,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2588,14 +2594,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2604,14 +2610,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2644,7 +2650,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2694,7 +2700,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2710,7 +2716,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2727,7 +2733,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2743,7 +2749,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2760,7 +2766,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2776,7 +2782,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2793,7 +2799,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2809,7 +2815,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2826,7 +2832,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2842,7 +2848,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2885,14 +2891,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2908,7 +2914,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2918,14 +2924,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2941,7 +2947,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2958,7 +2964,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2974,7 +2980,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2991,7 +2997,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3007,7 +3013,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3024,7 +3030,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3040,7 +3046,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3057,7 +3063,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3073,7 +3079,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3090,7 +3096,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3106,7 +3112,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3123,7 +3129,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3139,7 +3145,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3156,7 +3162,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3172,7 +3178,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3189,7 +3195,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3205,24 +3211,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3231,31 +3237,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3288,7 +3294,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3304,13 +3310,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3321,7 +3327,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3337,24 +3343,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3363,14 +3369,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3384,10 +3390,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3403,7 +3409,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3420,7 +3426,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3436,7 +3442,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3479,11 +3485,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3512,14 +3518,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3535,7 +3541,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3601,7 +3607,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3644,14 +3650,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3677,14 +3683,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3693,20 +3699,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3717,7 +3723,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3733,13 +3739,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3750,7 +3756,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3766,7 +3772,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3799,7 +3805,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3832,7 +3838,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3865,7 +3871,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3882,7 +3888,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3898,7 +3904,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3924,14 +3930,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3941,14 +3947,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3964,7 +3970,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3974,14 +3980,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3990,31 +3996,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4023,7 +4029,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4036,18 +4042,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4063,7 +4069,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4080,7 +4086,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4096,7 +4102,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4113,7 +4119,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4122,7 +4128,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4205,11 +4211,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4254,31 +4260,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4300,7 +4306,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4327,7 +4333,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4337,14 +4343,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4353,14 +4359,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4370,14 +4376,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4403,14 +4409,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4419,14 +4425,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4452,14 +4458,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4469,14 +4475,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4492,13 +4498,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4509,7 +4515,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4525,13 +4531,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4558,7 +4564,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4667,14 +4673,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4716,7 +4722,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4789,7 +4795,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4832,11 +4838,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4848,31 +4854,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4888,24 +4894,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>225</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4914,14 +4920,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4931,14 +4937,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>84</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4954,7 +4960,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4964,14 +4970,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4980,7 +4986,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4997,14 +5003,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5020,7 +5026,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5030,14 +5036,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5046,31 +5052,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5086,13 +5092,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -5103,7 +5109,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5119,7 +5125,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,14 +5135,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5145,14 +5151,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5162,14 +5168,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5178,14 +5184,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5195,14 +5201,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5211,14 +5217,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5228,11 +5234,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>96</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5244,14 +5250,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,14 +5267,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5277,14 +5283,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5294,14 +5300,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5317,7 +5323,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5327,11 +5333,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5343,14 +5349,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5360,11 +5366,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5376,14 +5382,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5393,14 +5399,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5409,14 +5415,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5426,14 +5432,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5442,7 +5448,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5459,7 +5465,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5482,7 +5488,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5499,7 +5505,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5515,7 +5521,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5529,10 +5535,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5541,14 +5547,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5562,10 +5568,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5574,14 +5580,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5591,11 +5597,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5614,7 +5620,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5628,7 +5634,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5647,21 +5653,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5673,28 +5679,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5706,28 +5712,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5739,20 +5745,20 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>17</v>
+        <v>338</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
@@ -5760,10 +5766,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5785,7 +5791,7 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5793,10 +5799,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>342</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5805,7 +5811,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5818,18 +5824,18 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>33</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5838,31 +5844,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5871,28 +5877,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5904,28 +5910,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>124</v>
+        <v>354</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5944,21 +5950,21 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>356</v>
+        <v>127</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5970,28 +5976,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6010,21 +6016,21 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6036,28 +6042,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6069,28 +6075,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6102,66 +6108,99 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>95</v>
+        <v>334</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>10386.08</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
         <v>367</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
         <v>368</v>
       </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>151</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>98</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>10395.98</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
         <v>369</v>
       </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>370</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>371</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6835,10 +6874,15 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -62,18 +62,18 @@
     <t>ALEJON WHITENING CREAM 50 ML</t>
   </si>
   <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>275.0000</t>
-  </si>
-  <si>
-    <t>ALKAPRESS 5MG 20 TAB.</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -575,7 +575,7 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>90.0000</t>
+    <t>180.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>68:0</t>
+    <t>67:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -1115,10 +1115,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>Sunday, 3 August, 2025 7:52 PM</t>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>Sunday, 3 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1792,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1802,11 +1802,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1818,14 +1818,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1858,7 +1858,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1924,7 +1924,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1957,7 +1957,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2122,7 +2122,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2320,7 +2320,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2386,7 +2386,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2452,7 +2452,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2485,7 +2485,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2551,7 +2551,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2650,7 +2650,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2782,7 +2782,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2848,7 +2848,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -3013,7 +3013,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3112,7 +3112,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3244,7 +3244,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3409,7 +3409,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3541,7 +3541,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3574,7 +3574,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3673,7 +3673,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3690,7 +3690,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3838,7 +3838,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -4201,7 +4201,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4300,7 +4300,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4333,7 +4333,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4399,7 +4399,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4432,7 +4432,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4498,7 +4498,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4531,7 +4531,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4894,7 +4894,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4993,7 +4993,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5026,7 +5026,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5191,7 +5191,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5620,7 +5620,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5785,7 +5785,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5818,7 +5818,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5851,7 +5851,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="141" ht="25.5" customHeight="1">
       <c r="P141" s="13">
-        <v>10395.98</v>
+        <v>10500.98</v>
       </c>
       <c r="Q141" s="13"/>
     </row>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>76.5600</t>
   </si>
   <si>
     <t>NEVILOB 5 MG 21 TAB</t>
@@ -1043,7 +1043,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1115,10 +1118,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>Sunday, 3 August, 2025 8:04 PM</t>
+    <t>Sunday, 3 August, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4564,7 +4564,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4581,7 +4581,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -5832,10 +5832,10 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5861,11 +5861,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>33</v>
@@ -5877,14 +5877,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5894,11 +5894,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5910,14 +5910,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5943,14 +5943,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5976,14 +5976,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5993,11 +5993,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6009,14 +6009,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6092,11 +6092,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6108,14 +6108,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6141,14 +6141,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="141" ht="25.5" customHeight="1">
       <c r="P141" s="13">
-        <v>10500.98</v>
+        <v>10513.540000000001</v>
       </c>
       <c r="Q141" s="13"/>
     </row>

--- a/DaySale_2025-08-03_00-00.xlsx
+++ b/DaySale_2025-08-03_00-00.xlsx
@@ -536,9 +536,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -1007,6 +1004,9 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -1031,6 +1031,18 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -1118,7 +1130,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Sunday, 3 August, 2025 8:20 PM</t>
+    <t>Sunday, 3 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3475,7 +3487,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3489,10 +3501,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3501,7 +3513,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3522,7 +3534,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3534,7 +3546,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3551,11 +3563,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>87</v>
@@ -3567,7 +3579,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3600,7 +3612,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>42</v>
@@ -3633,7 +3645,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3654,7 +3666,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>42</v>
@@ -3666,7 +3678,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3687,7 +3699,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3716,11 +3728,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3732,7 +3744,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>42</v>
@@ -3765,7 +3777,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3782,11 +3794,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3798,7 +3810,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3831,7 +3843,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3848,11 +3860,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3864,7 +3876,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3881,11 +3893,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3897,7 +3909,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>42</v>
@@ -3930,7 +3942,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3963,7 +3975,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3980,11 +3992,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>42</v>
@@ -3996,7 +4008,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4017,7 +4029,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>42</v>
@@ -4029,7 +4041,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4050,7 +4062,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>42</v>
@@ -4062,7 +4074,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -4095,7 +4107,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>42</v>
@@ -4128,7 +4140,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4161,7 +4173,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4182,7 +4194,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4194,7 +4206,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4215,7 +4227,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4227,7 +4239,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4260,7 +4272,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4277,11 +4289,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>42</v>
@@ -4293,7 +4305,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4310,11 +4322,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4326,7 +4338,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4343,11 +4355,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4359,7 +4371,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4380,7 +4392,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>42</v>
@@ -4392,7 +4404,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4409,11 +4421,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4425,7 +4437,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4458,7 +4470,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4479,7 +4491,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>33</v>
@@ -4491,7 +4503,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4508,11 +4520,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>42</v>
@@ -4524,7 +4536,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4541,11 +4553,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4557,7 +4569,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4590,7 +4602,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4611,7 +4623,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4623,7 +4635,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4640,11 +4652,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4656,7 +4668,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4689,7 +4701,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4706,14 +4718,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>266</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>267</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4722,7 +4734,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4743,7 +4755,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4755,7 +4767,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4772,7 +4784,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4788,7 +4800,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4805,11 +4817,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4821,7 +4833,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4838,11 +4850,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4854,7 +4866,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4875,7 +4887,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4887,7 +4899,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4904,11 +4916,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>42</v>
@@ -4920,7 +4932,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4941,10 +4953,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4953,14 +4965,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4970,11 +4982,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>87</v>
@@ -4986,7 +4998,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5007,7 +5019,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5019,7 +5031,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5036,11 +5048,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -5052,7 +5064,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5069,11 +5081,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>42</v>
@@ -5085,7 +5097,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5102,11 +5114,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>42</v>
@@ -5118,7 +5130,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5135,11 +5147,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>87</v>
@@ -5151,7 +5163,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5184,7 +5196,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5205,7 +5217,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>42</v>
@@ -5217,7 +5229,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5238,7 +5250,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5250,7 +5262,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5283,7 +5295,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5300,11 +5312,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>42</v>
@@ -5316,14 +5328,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5333,11 +5345,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5349,7 +5361,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5366,11 +5378,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5382,14 +5394,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5403,7 +5415,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5415,7 +5427,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5432,11 +5444,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>42</v>
@@ -5448,7 +5460,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5469,7 +5481,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5481,7 +5493,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5498,11 +5510,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5514,7 +5526,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5531,11 +5543,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>42</v>
@@ -5547,7 +5559,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5564,11 +5576,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>42</v>
@@ -5580,14 +5592,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5601,7 +5613,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5613,7 +5625,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5630,11 +5642,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5646,14 +5658,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5663,14 +5675,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5785,7 +5797,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5795,14 +5807,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5811,7 +5823,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5828,14 +5840,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>345</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5868,7 +5880,7 @@
         <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>33</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5877,14 +5889,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5901,7 +5913,7 @@
         <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5931,7 +5943,7 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5943,14 +5955,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5960,11 +5972,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>127</v>
+        <v>359</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5976,14 +5988,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5993,11 +6005,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6009,14 +6021,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6026,11 +6038,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>160</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6042,14 +6054,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6075,14 +6087,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6092,11 +6104,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>366</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6108,14 +6120,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>362</v>
+        <v>63</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6125,11 +6137,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6141,14 +6153,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6158,49 +6170,82 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>372</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>349</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>151</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>98</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q140" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>10513.540000000001</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s=